--- a/tests/adaptive400/rain2_1_lin150k.xlsx
+++ b/tests/adaptive400/rain2_1_lin150k.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robrecht\IdeaProjects\thesis\tests\adaptive400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD300D4F-6654-4DE0-BDBF-D0CC8C30CA38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBFDBD-78EA-4E02-9756-853D19F8118F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22395,15 +22395,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>81516</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>117503</xdr:rowOff>
+      <xdr:colOff>63587</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>371076</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>132743</xdr:rowOff>
+      <xdr:colOff>353147</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87919</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22790,7 +22790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ABW16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="NN4" sqref="NN4"/>
     </sheetView>
   </sheetViews>

--- a/tests/adaptive400/rain2_1_lin150k.xlsx
+++ b/tests/adaptive400/rain2_1_lin150k.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robrecht\IdeaProjects\thesis\tests\adaptive400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BBFDBD-78EA-4E02-9756-853D19F8118F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC8047-805D-46CA-BD40-F55BDEB18553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="28380" yWindow="336" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>diff_sq</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>avg_rew</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>error2</t>
+  </si>
+  <si>
+    <t>succes</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>slip</t>
   </si>
 </sst>
 </file>
@@ -14205,7 +14220,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>main!$A$11</c:f>
+              <c:f>main!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14228,7 +14243,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>main!$B$11:$ABW$11</c:f>
+              <c:f>main!$B$13:$ABW$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="750"/>
@@ -22394,16 +22409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>63587</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27728</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>72679</xdr:rowOff>
+      <xdr:rowOff>171291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>353147</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87919</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>317288</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7237</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22788,10 +22803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ABW16"/>
+  <dimension ref="A1:ABW25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="NN4" sqref="NN4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36326,3008 +36341,3036 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>AVERAGE(B2:NM2)</f>
+        <v>1.3837482730208996</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(NN2:ABW2)</f>
+        <v>1.3221613488264783</v>
+      </c>
+      <c r="C10">
+        <f>AVERAGE(2:2)</f>
+        <v>1.3530369268226148</v>
+      </c>
+    </row>
     <row r="11" spans="1:751" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11">
+        <f>AVERAGE(B5:NM5)</f>
+        <v>7.8699334773083912E-2</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(NN5:ABW5)</f>
+        <v>1.2756057795505367</v>
+      </c>
+      <c r="C11">
+        <f>AVERAGE(5:5)</f>
+        <v>0.67555668190210705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <f>10-B3</f>
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:BN11" si="0">10-C3</f>
+      <c r="C13">
+        <f>10-C3</f>
         <v>0.5</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f>10-D3</f>
         <v>0.5</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <f>10-E3</f>
         <v>0.5</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f>10-F3</f>
         <v>0.5</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
+      <c r="G13">
+        <f>10-G3</f>
         <v>3.5</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
+      <c r="H13">
+        <f>10-H3</f>
         <v>3.5</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
+      <c r="I13">
+        <f>10-I3</f>
         <v>3.5</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
+      <c r="J13">
+        <f>10-J3</f>
         <v>3.5</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
+      <c r="K13">
+        <f>10-K3</f>
         <v>3.5</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
+      <c r="L13">
+        <f>10-L3</f>
         <v>3.5</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="M13">
+        <f>10-M3</f>
         <v>3.5</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
+      <c r="N13">
+        <f>10-N3</f>
         <v>3.5</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="0"/>
+      <c r="O13">
+        <f>10-O3</f>
         <v>3.5</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
+      <c r="P13">
+        <f>10-P3</f>
         <v>3.2472924187725631</v>
       </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
+      <c r="Q13">
+        <f>10-Q3</f>
         <v>2.8862815884476536</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
+      <c r="R13">
+        <f>10-R3</f>
         <v>2.525270758122744</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
+      <c r="S13">
+        <f>10-S3</f>
         <v>3.5</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
+      <c r="T13">
+        <f>10-T3</f>
         <v>3.5</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
+      <c r="U13">
+        <f>10-U3</f>
         <v>3.5</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="0"/>
+      <c r="V13">
+        <f>10-V3</f>
         <v>3.5</v>
       </c>
-      <c r="W11">
-        <f t="shared" si="0"/>
+      <c r="W13">
+        <f>10-W3</f>
         <v>3.5</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="0"/>
+      <c r="X13">
+        <f>10-X3</f>
         <v>3.5</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="0"/>
+      <c r="Y13">
+        <f>10-Y3</f>
         <v>3.5</v>
       </c>
-      <c r="Z11">
-        <f t="shared" si="0"/>
+      <c r="Z13">
+        <f>10-Z3</f>
         <v>3.5</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="0"/>
+      <c r="AA13">
+        <f>10-AA3</f>
         <v>3.5</v>
       </c>
-      <c r="AB11">
-        <f t="shared" si="0"/>
+      <c r="AB13">
+        <f>10-AB3</f>
         <v>3.5</v>
       </c>
-      <c r="AC11">
-        <f t="shared" si="0"/>
+      <c r="AC13">
+        <f>10-AC3</f>
         <v>3.3169630642954848</v>
       </c>
-      <c r="AD11">
-        <f t="shared" si="0"/>
+      <c r="AD13">
+        <f>10-AD3</f>
         <v>2.9886456908344723</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="0"/>
+      <c r="AE13">
+        <f>10-AE3</f>
         <v>2.6603283173734624</v>
       </c>
-      <c r="AF11">
-        <f t="shared" si="0"/>
+      <c r="AF13">
+        <f>10-AF3</f>
         <v>2.3320109439124481</v>
       </c>
-      <c r="AG11">
-        <f t="shared" si="0"/>
+      <c r="AG13">
+        <f>10-AG3</f>
         <v>2.0036935704514374</v>
       </c>
-      <c r="AH11">
-        <f t="shared" si="0"/>
+      <c r="AH13">
+        <f>10-AH3</f>
         <v>1.6753761969904239</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="0"/>
+      <c r="AI13">
+        <f>10-AI3</f>
         <v>1.3470588235294123</v>
       </c>
-      <c r="AJ11">
-        <f t="shared" si="0"/>
+      <c r="AJ13">
+        <f>10-AJ3</f>
         <v>1.0187414500684007</v>
       </c>
-      <c r="AK11">
-        <f t="shared" si="0"/>
+      <c r="AK13">
+        <f>10-AK3</f>
         <v>0.69042407660738725</v>
       </c>
-      <c r="AL11">
-        <f t="shared" si="0"/>
+      <c r="AL13">
+        <f>10-AL3</f>
         <v>0.5</v>
       </c>
-      <c r="AM11">
-        <f t="shared" si="0"/>
+      <c r="AM13">
+        <f>10-AM3</f>
         <v>0.5</v>
       </c>
-      <c r="AN11">
-        <f t="shared" si="0"/>
+      <c r="AN13">
+        <f>10-AN3</f>
         <v>0.5</v>
       </c>
-      <c r="AO11">
-        <f t="shared" si="0"/>
+      <c r="AO13">
+        <f>10-AO3</f>
         <v>0.5</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="0"/>
+      <c r="AP13">
+        <f>10-AP3</f>
         <v>0.5</v>
       </c>
-      <c r="AQ11">
-        <f t="shared" si="0"/>
+      <c r="AQ13">
+        <f>10-AQ3</f>
         <v>0.5</v>
       </c>
-      <c r="AR11">
-        <f t="shared" si="0"/>
+      <c r="AR13">
+        <f>10-AR3</f>
         <v>0.5</v>
       </c>
-      <c r="AS11">
-        <f t="shared" si="0"/>
+      <c r="AS13">
+        <f>10-AS3</f>
         <v>0.5</v>
       </c>
-      <c r="AT11">
-        <f t="shared" si="0"/>
+      <c r="AT13">
+        <f>10-AT3</f>
         <v>0.5</v>
       </c>
-      <c r="AU11">
-        <f t="shared" si="0"/>
+      <c r="AU13">
+        <f>10-AU3</f>
         <v>0.5</v>
       </c>
-      <c r="AV11">
-        <f t="shared" si="0"/>
+      <c r="AV13">
+        <f>10-AV3</f>
         <v>0.5</v>
       </c>
-      <c r="AW11">
-        <f t="shared" si="0"/>
+      <c r="AW13">
+        <f>10-AW3</f>
         <v>0.5</v>
       </c>
-      <c r="AX11">
-        <f t="shared" si="0"/>
+      <c r="AX13">
+        <f>10-AX3</f>
         <v>0.5</v>
       </c>
-      <c r="AY11">
-        <f t="shared" si="0"/>
+      <c r="AY13">
+        <f>10-AY3</f>
         <v>0.5</v>
       </c>
-      <c r="AZ11">
-        <f t="shared" si="0"/>
+      <c r="AZ13">
+        <f>10-AZ3</f>
         <v>0.5</v>
       </c>
-      <c r="BA11">
-        <f t="shared" si="0"/>
+      <c r="BA13">
+        <f>10-BA3</f>
         <v>0.5</v>
       </c>
-      <c r="BB11">
-        <f t="shared" si="0"/>
+      <c r="BB13">
+        <f>10-BB3</f>
         <v>0.5</v>
       </c>
-      <c r="BC11">
-        <f t="shared" si="0"/>
+      <c r="BC13">
+        <f>10-BC3</f>
         <v>0.5</v>
       </c>
-      <c r="BD11">
-        <f t="shared" si="0"/>
+      <c r="BD13">
+        <f>10-BD3</f>
         <v>0.5</v>
       </c>
-      <c r="BE11">
-        <f t="shared" si="0"/>
+      <c r="BE13">
+        <f>10-BE3</f>
         <v>0.5</v>
       </c>
-      <c r="BF11">
-        <f t="shared" si="0"/>
+      <c r="BF13">
+        <f>10-BF3</f>
         <v>0.5</v>
       </c>
-      <c r="BG11">
-        <f t="shared" si="0"/>
+      <c r="BG13">
+        <f>10-BG3</f>
         <v>0.5</v>
       </c>
-      <c r="BH11">
-        <f t="shared" si="0"/>
+      <c r="BH13">
+        <f>10-BH3</f>
         <v>0.5</v>
       </c>
-      <c r="BI11">
-        <f t="shared" si="0"/>
+      <c r="BI13">
+        <f>10-BI3</f>
         <v>0.5</v>
       </c>
-      <c r="BJ11">
-        <f t="shared" si="0"/>
+      <c r="BJ13">
+        <f>10-BJ3</f>
         <v>0.5</v>
       </c>
-      <c r="BK11">
-        <f t="shared" si="0"/>
+      <c r="BK13">
+        <f>10-BK3</f>
         <v>0.5</v>
       </c>
-      <c r="BL11">
-        <f t="shared" si="0"/>
+      <c r="BL13">
+        <f>10-BL3</f>
         <v>0.5</v>
       </c>
-      <c r="BM11">
-        <f t="shared" si="0"/>
+      <c r="BM13">
+        <f>10-BM3</f>
         <v>3.5</v>
       </c>
-      <c r="BN11">
-        <f t="shared" si="0"/>
+      <c r="BN13">
+        <f>10-BN3</f>
         <v>3.5</v>
       </c>
-      <c r="BO11">
-        <f t="shared" ref="BO11:DZ11" si="1">10-BO3</f>
+      <c r="BO13">
+        <f>10-BO3</f>
         <v>3.5</v>
       </c>
-      <c r="BP11">
-        <f t="shared" si="1"/>
+      <c r="BP13">
+        <f>10-BP3</f>
         <v>3.5</v>
       </c>
-      <c r="BQ11">
-        <f t="shared" si="1"/>
+      <c r="BQ13">
+        <f>10-BQ3</f>
         <v>3.5</v>
       </c>
-      <c r="BR11">
-        <f t="shared" si="1"/>
+      <c r="BR13">
+        <f>10-BR3</f>
         <v>3.5</v>
       </c>
-      <c r="BS11">
-        <f t="shared" si="1"/>
+      <c r="BS13">
+        <f>10-BS3</f>
         <v>3.4593190998268897</v>
       </c>
-      <c r="BT11">
-        <f t="shared" si="1"/>
+      <c r="BT13">
+        <f>10-BT3</f>
         <v>3.1130986728216969</v>
       </c>
-      <c r="BU11">
-        <f t="shared" si="1"/>
+      <c r="BU13">
+        <f>10-BU3</f>
         <v>2.7668782458165033</v>
       </c>
-      <c r="BV11">
-        <f t="shared" si="1"/>
+      <c r="BV13">
+        <f>10-BV3</f>
         <v>2.4206578188113106</v>
       </c>
-      <c r="BW11">
-        <f t="shared" si="1"/>
+      <c r="BW13">
+        <f>10-BW3</f>
         <v>2.0744373918061161</v>
       </c>
-      <c r="BX11">
-        <f t="shared" si="1"/>
+      <c r="BX13">
+        <f>10-BX3</f>
         <v>1.7282169648009233</v>
       </c>
-      <c r="BY11">
-        <f t="shared" si="1"/>
+      <c r="BY13">
+        <f>10-BY3</f>
         <v>1.3819965377957306</v>
       </c>
-      <c r="BZ11">
-        <f t="shared" si="1"/>
+      <c r="BZ13">
+        <f>10-BZ3</f>
         <v>1.0357761107905379</v>
       </c>
-      <c r="CA11">
-        <f t="shared" si="1"/>
+      <c r="CA13">
+        <f>10-CA3</f>
         <v>0.68955568378534338</v>
       </c>
-      <c r="CB11">
-        <f t="shared" si="1"/>
+      <c r="CB13">
+        <f>10-CB3</f>
         <v>0.5</v>
       </c>
-      <c r="CC11">
-        <f t="shared" si="1"/>
+      <c r="CC13">
+        <f>10-CC3</f>
         <v>0.5</v>
       </c>
-      <c r="CD11">
-        <f t="shared" si="1"/>
+      <c r="CD13">
+        <f>10-CD3</f>
         <v>0.5</v>
       </c>
-      <c r="CE11">
-        <f t="shared" si="1"/>
+      <c r="CE13">
+        <f>10-CE3</f>
         <v>0.5</v>
       </c>
-      <c r="CF11">
-        <f t="shared" si="1"/>
+      <c r="CF13">
+        <f>10-CF3</f>
         <v>0.5</v>
       </c>
-      <c r="CG11">
-        <f t="shared" si="1"/>
+      <c r="CG13">
+        <f>10-CG3</f>
         <v>0.5</v>
       </c>
-      <c r="CH11">
-        <f t="shared" si="1"/>
+      <c r="CH13">
+        <f>10-CH3</f>
         <v>0.5</v>
       </c>
-      <c r="CI11">
-        <f t="shared" si="1"/>
+      <c r="CI13">
+        <f>10-CI3</f>
         <v>0.5</v>
       </c>
-      <c r="CJ11">
-        <f t="shared" si="1"/>
+      <c r="CJ13">
+        <f>10-CJ3</f>
         <v>0.5</v>
       </c>
-      <c r="CK11">
-        <f t="shared" si="1"/>
+      <c r="CK13">
+        <f>10-CK3</f>
         <v>0.5</v>
       </c>
-      <c r="CL11">
-        <f t="shared" si="1"/>
+      <c r="CL13">
+        <f>10-CL3</f>
         <v>0.5</v>
       </c>
-      <c r="CM11">
-        <f t="shared" si="1"/>
+      <c r="CM13">
+        <f>10-CM3</f>
         <v>0.5</v>
       </c>
-      <c r="CN11">
-        <f t="shared" si="1"/>
+      <c r="CN13">
+        <f>10-CN3</f>
         <v>0.5</v>
       </c>
-      <c r="CO11">
-        <f t="shared" si="1"/>
+      <c r="CO13">
+        <f>10-CO3</f>
         <v>0.5</v>
       </c>
-      <c r="CP11">
-        <f t="shared" si="1"/>
+      <c r="CP13">
+        <f>10-CP3</f>
         <v>0.5</v>
       </c>
-      <c r="CQ11">
-        <f t="shared" si="1"/>
+      <c r="CQ13">
+        <f>10-CQ3</f>
         <v>0.5</v>
       </c>
-      <c r="CR11">
-        <f t="shared" si="1"/>
+      <c r="CR13">
+        <f>10-CR3</f>
         <v>3.5</v>
       </c>
-      <c r="CS11">
-        <f t="shared" si="1"/>
+      <c r="CS13">
+        <f>10-CS3</f>
         <v>3.5</v>
       </c>
-      <c r="CT11">
-        <f t="shared" si="1"/>
+      <c r="CT13">
+        <f>10-CT3</f>
         <v>3.5</v>
       </c>
-      <c r="CU11">
-        <f t="shared" si="1"/>
+      <c r="CU13">
+        <f>10-CU3</f>
         <v>3.5</v>
       </c>
-      <c r="CV11">
-        <f t="shared" si="1"/>
+      <c r="CV13">
+        <f>10-CV3</f>
         <v>3.5</v>
       </c>
-      <c r="CW11">
-        <f t="shared" si="1"/>
+      <c r="CW13">
+        <f>10-CW3</f>
         <v>3.5</v>
       </c>
-      <c r="CX11">
-        <f t="shared" si="1"/>
+      <c r="CX13">
+        <f>10-CX3</f>
         <v>3.5</v>
       </c>
-      <c r="CY11">
-        <f t="shared" si="1"/>
+      <c r="CY13">
+        <f>10-CY3</f>
         <v>3.5</v>
       </c>
-      <c r="CZ11">
-        <f t="shared" si="1"/>
+      <c r="CZ13">
+        <f>10-CZ3</f>
         <v>3.5</v>
       </c>
-      <c r="DA11">
-        <f t="shared" si="1"/>
+      <c r="DA13">
+        <f>10-DA3</f>
         <v>3.5</v>
       </c>
-      <c r="DB11">
-        <f t="shared" si="1"/>
+      <c r="DB13">
+        <f>10-DB3</f>
         <v>3.5</v>
       </c>
-      <c r="DC11">
-        <f t="shared" si="1"/>
+      <c r="DC13">
+        <f>10-DC3</f>
         <v>3.5</v>
       </c>
-      <c r="DD11">
-        <f t="shared" si="1"/>
+      <c r="DD13">
+        <f>10-DD3</f>
         <v>3.3626943005181342</v>
       </c>
-      <c r="DE11">
-        <f t="shared" si="1"/>
+      <c r="DE13">
+        <f>10-DE3</f>
         <v>3.1036269430051808</v>
       </c>
-      <c r="DF11">
-        <f t="shared" si="1"/>
+      <c r="DF13">
+        <f>10-DF3</f>
         <v>2.8445595854922274</v>
       </c>
-      <c r="DG11">
-        <f t="shared" si="1"/>
+      <c r="DG13">
+        <f>10-DG3</f>
         <v>2.5854922279792749</v>
       </c>
-      <c r="DH11">
-        <f t="shared" si="1"/>
+      <c r="DH13">
+        <f>10-DH3</f>
         <v>2.3264248704663224</v>
       </c>
-      <c r="DI11">
-        <f t="shared" si="1"/>
+      <c r="DI13">
+        <f>10-DI3</f>
         <v>2.0673575129533672</v>
       </c>
-      <c r="DJ11">
-        <f t="shared" si="1"/>
+      <c r="DJ13">
+        <f>10-DJ3</f>
         <v>1.8082901554404156</v>
       </c>
-      <c r="DK11">
-        <f t="shared" si="1"/>
+      <c r="DK13">
+        <f>10-DK3</f>
         <v>1.5492227979274613</v>
       </c>
-      <c r="DL11">
-        <f t="shared" si="1"/>
+      <c r="DL13">
+        <f>10-DL3</f>
         <v>1.290155440414507</v>
       </c>
-      <c r="DM11">
-        <f t="shared" si="1"/>
+      <c r="DM13">
+        <f>10-DM3</f>
         <v>1.0310880829015545</v>
       </c>
-      <c r="DN11">
-        <f t="shared" si="1"/>
+      <c r="DN13">
+        <f>10-DN3</f>
         <v>3.5</v>
       </c>
-      <c r="DO11">
-        <f t="shared" si="1"/>
+      <c r="DO13">
+        <f>10-DO3</f>
         <v>3.5</v>
       </c>
-      <c r="DP11">
-        <f t="shared" si="1"/>
+      <c r="DP13">
+        <f>10-DP3</f>
         <v>3.5</v>
       </c>
-      <c r="DQ11">
-        <f t="shared" si="1"/>
+      <c r="DQ13">
+        <f>10-DQ3</f>
         <v>3.5</v>
       </c>
-      <c r="DR11">
-        <f t="shared" si="1"/>
+      <c r="DR13">
+        <f>10-DR3</f>
         <v>3.4557035321366527</v>
       </c>
-      <c r="DS11">
-        <f t="shared" si="1"/>
+      <c r="DS13">
+        <f>10-DS3</f>
         <v>3.1082802547770694</v>
       </c>
-      <c r="DT11">
-        <f t="shared" si="1"/>
+      <c r="DT13">
+        <f>10-DT3</f>
         <v>2.7608569774174878</v>
       </c>
-      <c r="DU11">
-        <f t="shared" si="1"/>
+      <c r="DU13">
+        <f>10-DU3</f>
         <v>2.4134337000579036</v>
       </c>
-      <c r="DV11">
-        <f t="shared" si="1"/>
+      <c r="DV13">
+        <f>10-DV3</f>
         <v>2.0660104226983211</v>
       </c>
-      <c r="DW11">
-        <f t="shared" si="1"/>
+      <c r="DW13">
+        <f>10-DW3</f>
         <v>1.7185871453387378</v>
       </c>
-      <c r="DX11">
-        <f t="shared" si="1"/>
+      <c r="DX13">
+        <f>10-DX3</f>
         <v>1.3711638679791545</v>
       </c>
-      <c r="DY11">
-        <f t="shared" si="1"/>
+      <c r="DY13">
+        <f>10-DY3</f>
         <v>1.0237405906195711</v>
       </c>
-      <c r="DZ11">
-        <f t="shared" si="1"/>
+      <c r="DZ13">
+        <f>10-DZ3</f>
         <v>0.67631731325998956</v>
       </c>
-      <c r="EA11">
-        <f t="shared" ref="EA11:GL11" si="2">10-EA3</f>
+      <c r="EA13">
+        <f>10-EA3</f>
         <v>0.5</v>
       </c>
-      <c r="EB11">
-        <f t="shared" si="2"/>
+      <c r="EB13">
+        <f>10-EB3</f>
         <v>0.5</v>
       </c>
-      <c r="EC11">
-        <f t="shared" si="2"/>
+      <c r="EC13">
+        <f>10-EC3</f>
         <v>0.5</v>
       </c>
-      <c r="ED11">
-        <f t="shared" si="2"/>
+      <c r="ED13">
+        <f>10-ED3</f>
         <v>0.5</v>
       </c>
-      <c r="EE11">
-        <f t="shared" si="2"/>
+      <c r="EE13">
+        <f>10-EE3</f>
         <v>0.5</v>
       </c>
-      <c r="EF11">
-        <f t="shared" si="2"/>
+      <c r="EF13">
+        <f>10-EF3</f>
         <v>0.5</v>
       </c>
-      <c r="EG11">
-        <f t="shared" si="2"/>
+      <c r="EG13">
+        <f>10-EG3</f>
         <v>0.5</v>
       </c>
-      <c r="EH11">
-        <f t="shared" si="2"/>
+      <c r="EH13">
+        <f>10-EH3</f>
         <v>0.5</v>
       </c>
-      <c r="EI11">
-        <f t="shared" si="2"/>
+      <c r="EI13">
+        <f>10-EI3</f>
         <v>0.5</v>
       </c>
-      <c r="EJ11">
-        <f t="shared" si="2"/>
+      <c r="EJ13">
+        <f>10-EJ3</f>
         <v>0.5</v>
       </c>
-      <c r="EK11">
-        <f t="shared" si="2"/>
+      <c r="EK13">
+        <f>10-EK3</f>
         <v>0.5</v>
       </c>
-      <c r="EL11">
-        <f t="shared" si="2"/>
+      <c r="EL13">
+        <f>10-EL3</f>
         <v>0.5</v>
       </c>
-      <c r="EM11">
-        <f t="shared" si="2"/>
+      <c r="EM13">
+        <f>10-EM3</f>
         <v>0.5</v>
       </c>
-      <c r="EN11">
-        <f t="shared" si="2"/>
+      <c r="EN13">
+        <f>10-EN3</f>
         <v>0.5</v>
       </c>
-      <c r="EO11">
-        <f t="shared" si="2"/>
+      <c r="EO13">
+        <f>10-EO3</f>
         <v>0.5</v>
       </c>
-      <c r="EP11">
-        <f t="shared" si="2"/>
+      <c r="EP13">
+        <f>10-EP3</f>
         <v>0.5</v>
       </c>
-      <c r="EQ11">
-        <f t="shared" si="2"/>
+      <c r="EQ13">
+        <f>10-EQ3</f>
         <v>0.5</v>
       </c>
-      <c r="ER11">
-        <f t="shared" si="2"/>
+      <c r="ER13">
+        <f>10-ER3</f>
         <v>0.5</v>
       </c>
-      <c r="ES11">
-        <f t="shared" si="2"/>
+      <c r="ES13">
+        <f>10-ES3</f>
         <v>0.5</v>
       </c>
-      <c r="ET11">
-        <f t="shared" si="2"/>
+      <c r="ET13">
+        <f>10-ET3</f>
         <v>0.5</v>
       </c>
-      <c r="EU11">
-        <f t="shared" si="2"/>
+      <c r="EU13">
+        <f>10-EU3</f>
         <v>0.5</v>
       </c>
-      <c r="EV11">
-        <f t="shared" si="2"/>
+      <c r="EV13">
+        <f>10-EV3</f>
         <v>0.5</v>
       </c>
-      <c r="EW11">
-        <f t="shared" si="2"/>
+      <c r="EW13">
+        <f>10-EW3</f>
         <v>0.5</v>
       </c>
-      <c r="EX11">
-        <f t="shared" si="2"/>
+      <c r="EX13">
+        <f>10-EX3</f>
         <v>0.5</v>
       </c>
-      <c r="EY11">
-        <f t="shared" si="2"/>
+      <c r="EY13">
+        <f>10-EY3</f>
         <v>0.5</v>
       </c>
-      <c r="EZ11">
-        <f t="shared" si="2"/>
+      <c r="EZ13">
+        <f>10-EZ3</f>
         <v>0.5</v>
       </c>
-      <c r="FA11">
-        <f t="shared" si="2"/>
+      <c r="FA13">
+        <f>10-FA3</f>
         <v>0.5</v>
       </c>
-      <c r="FB11">
-        <f t="shared" si="2"/>
+      <c r="FB13">
+        <f>10-FB3</f>
         <v>0.5</v>
       </c>
-      <c r="FC11">
-        <f t="shared" si="2"/>
+      <c r="FC13">
+        <f>10-FC3</f>
         <v>0.5</v>
       </c>
-      <c r="FD11">
-        <f t="shared" si="2"/>
+      <c r="FD13">
+        <f>10-FD3</f>
         <v>0.5</v>
       </c>
-      <c r="FE11">
-        <f t="shared" si="2"/>
+      <c r="FE13">
+        <f>10-FE3</f>
         <v>0.5</v>
       </c>
-      <c r="FF11">
-        <f t="shared" si="2"/>
+      <c r="FF13">
+        <f>10-FF3</f>
         <v>0.5</v>
       </c>
-      <c r="FG11">
-        <f t="shared" si="2"/>
+      <c r="FG13">
+        <f>10-FG3</f>
         <v>0.5</v>
       </c>
-      <c r="FH11">
-        <f t="shared" si="2"/>
+      <c r="FH13">
+        <f>10-FH3</f>
         <v>0.5</v>
       </c>
-      <c r="FI11">
-        <f t="shared" si="2"/>
+      <c r="FI13">
+        <f>10-FI3</f>
         <v>0.5</v>
       </c>
-      <c r="FJ11">
-        <f t="shared" si="2"/>
+      <c r="FJ13">
+        <f>10-FJ3</f>
         <v>0.5</v>
       </c>
-      <c r="FK11">
-        <f t="shared" si="2"/>
+      <c r="FK13">
+        <f>10-FK3</f>
         <v>0.5</v>
       </c>
-      <c r="FL11">
-        <f t="shared" si="2"/>
+      <c r="FL13">
+        <f>10-FL3</f>
         <v>0.5</v>
       </c>
-      <c r="FM11">
-        <f t="shared" si="2"/>
+      <c r="FM13">
+        <f>10-FM3</f>
         <v>0.5</v>
       </c>
-      <c r="FN11">
-        <f t="shared" si="2"/>
+      <c r="FN13">
+        <f>10-FN3</f>
         <v>3.5</v>
       </c>
-      <c r="FO11">
-        <f t="shared" si="2"/>
+      <c r="FO13">
+        <f>10-FO3</f>
         <v>3.5</v>
       </c>
-      <c r="FP11">
-        <f t="shared" si="2"/>
+      <c r="FP13">
+        <f>10-FP3</f>
         <v>3.5</v>
       </c>
-      <c r="FQ11">
-        <f t="shared" si="2"/>
+      <c r="FQ13">
+        <f>10-FQ3</f>
         <v>3.5</v>
       </c>
-      <c r="FR11">
-        <f t="shared" si="2"/>
+      <c r="FR13">
+        <f>10-FR3</f>
         <v>3.5</v>
       </c>
-      <c r="FS11">
-        <f t="shared" si="2"/>
+      <c r="FS13">
+        <f>10-FS3</f>
         <v>3.2745118622716776</v>
       </c>
-      <c r="FT11">
-        <f t="shared" si="2"/>
+      <c r="FT13">
+        <f>10-FT3</f>
         <v>3.0225698089439419</v>
       </c>
-      <c r="FU11">
-        <f t="shared" si="2"/>
+      <c r="FU13">
+        <f>10-FU3</f>
         <v>2.7706277556162089</v>
       </c>
-      <c r="FV11">
-        <f t="shared" si="2"/>
+      <c r="FV13">
+        <f>10-FV3</f>
         <v>2.5186857022884732</v>
       </c>
-      <c r="FW11">
-        <f t="shared" si="2"/>
+      <c r="FW13">
+        <f>10-FW3</f>
         <v>2.2667436489607393</v>
       </c>
-      <c r="FX11">
-        <f t="shared" si="2"/>
+      <c r="FX13">
+        <f>10-FX3</f>
         <v>2.0148015956330054</v>
       </c>
-      <c r="FY11">
-        <f t="shared" si="2"/>
+      <c r="FY13">
+        <f>10-FY3</f>
         <v>1.7628595423052698</v>
       </c>
-      <c r="FZ11">
-        <f t="shared" si="2"/>
+      <c r="FZ13">
+        <f>10-FZ3</f>
         <v>1.510917488977535</v>
       </c>
-      <c r="GA11">
-        <f t="shared" si="2"/>
+      <c r="GA13">
+        <f>10-GA3</f>
         <v>1.2589754356498002</v>
       </c>
-      <c r="GB11">
-        <f t="shared" si="2"/>
+      <c r="GB13">
+        <f>10-GB3</f>
         <v>1.0070333823220672</v>
       </c>
-      <c r="GC11">
-        <f t="shared" si="2"/>
+      <c r="GC13">
+        <f>10-GC3</f>
         <v>0.7550913289943324</v>
       </c>
-      <c r="GD11">
-        <f t="shared" si="2"/>
+      <c r="GD13">
+        <f>10-GD3</f>
         <v>0.5</v>
       </c>
-      <c r="GE11">
-        <f t="shared" si="2"/>
+      <c r="GE13">
+        <f>10-GE3</f>
         <v>0.5</v>
       </c>
-      <c r="GF11">
-        <f t="shared" si="2"/>
+      <c r="GF13">
+        <f>10-GF3</f>
         <v>0.5</v>
       </c>
-      <c r="GG11">
-        <f t="shared" si="2"/>
+      <c r="GG13">
+        <f>10-GG3</f>
         <v>0.5</v>
       </c>
-      <c r="GH11">
-        <f t="shared" si="2"/>
+      <c r="GH13">
+        <f>10-GH3</f>
         <v>0.5</v>
       </c>
-      <c r="GI11">
-        <f t="shared" si="2"/>
+      <c r="GI13">
+        <f>10-GI3</f>
         <v>0.5</v>
       </c>
-      <c r="GJ11">
-        <f t="shared" si="2"/>
+      <c r="GJ13">
+        <f>10-GJ3</f>
         <v>0.5</v>
       </c>
-      <c r="GK11">
-        <f t="shared" si="2"/>
+      <c r="GK13">
+        <f>10-GK3</f>
         <v>0.5</v>
       </c>
-      <c r="GL11">
-        <f t="shared" si="2"/>
+      <c r="GL13">
+        <f>10-GL3</f>
         <v>0.5</v>
       </c>
-      <c r="GM11">
-        <f t="shared" ref="GM11:IX11" si="3">10-GM3</f>
+      <c r="GM13">
+        <f>10-GM3</f>
         <v>0.5</v>
       </c>
-      <c r="GN11">
-        <f t="shared" si="3"/>
+      <c r="GN13">
+        <f>10-GN3</f>
         <v>0.5</v>
       </c>
-      <c r="GO11">
-        <f t="shared" si="3"/>
+      <c r="GO13">
+        <f>10-GO3</f>
         <v>0.5</v>
       </c>
-      <c r="GP11">
-        <f t="shared" si="3"/>
+      <c r="GP13">
+        <f>10-GP3</f>
         <v>0.5</v>
       </c>
-      <c r="GQ11">
-        <f t="shared" si="3"/>
+      <c r="GQ13">
+        <f>10-GQ3</f>
         <v>0.5</v>
       </c>
-      <c r="GR11">
-        <f t="shared" si="3"/>
+      <c r="GR13">
+        <f>10-GR3</f>
         <v>0.5</v>
       </c>
-      <c r="GS11">
-        <f t="shared" si="3"/>
+      <c r="GS13">
+        <f>10-GS3</f>
         <v>0.5</v>
       </c>
-      <c r="GT11">
-        <f t="shared" si="3"/>
+      <c r="GT13">
+        <f>10-GT3</f>
         <v>0.5</v>
       </c>
-      <c r="GU11">
-        <f t="shared" si="3"/>
+      <c r="GU13">
+        <f>10-GU3</f>
         <v>0.5</v>
       </c>
-      <c r="GV11">
-        <f t="shared" si="3"/>
+      <c r="GV13">
+        <f>10-GV3</f>
         <v>0.5</v>
       </c>
-      <c r="GW11">
-        <f t="shared" si="3"/>
+      <c r="GW13">
+        <f>10-GW3</f>
         <v>0.5</v>
       </c>
-      <c r="GX11">
-        <f t="shared" si="3"/>
+      <c r="GX13">
+        <f>10-GX3</f>
         <v>0.5</v>
       </c>
-      <c r="GY11">
-        <f t="shared" si="3"/>
+      <c r="GY13">
+        <f>10-GY3</f>
         <v>0.5</v>
       </c>
-      <c r="GZ11">
-        <f t="shared" si="3"/>
+      <c r="GZ13">
+        <f>10-GZ3</f>
         <v>0.5</v>
       </c>
-      <c r="HA11">
-        <f t="shared" si="3"/>
+      <c r="HA13">
+        <f>10-HA3</f>
         <v>0.5</v>
       </c>
-      <c r="HB11">
-        <f t="shared" si="3"/>
+      <c r="HB13">
+        <f>10-HB3</f>
         <v>0.5</v>
       </c>
-      <c r="HC11">
-        <f t="shared" si="3"/>
+      <c r="HC13">
+        <f>10-HC3</f>
         <v>0.5</v>
       </c>
-      <c r="HD11">
-        <f t="shared" si="3"/>
+      <c r="HD13">
+        <f>10-HD3</f>
         <v>0.5</v>
       </c>
-      <c r="HE11">
-        <f t="shared" si="3"/>
+      <c r="HE13">
+        <f>10-HE3</f>
         <v>0.5</v>
       </c>
-      <c r="HF11">
-        <f t="shared" si="3"/>
+      <c r="HF13">
+        <f>10-HF3</f>
         <v>0.5</v>
       </c>
-      <c r="HG11">
-        <f t="shared" si="3"/>
+      <c r="HG13">
+        <f>10-HG3</f>
         <v>0.5</v>
       </c>
-      <c r="HH11">
-        <f t="shared" si="3"/>
+      <c r="HH13">
+        <f>10-HH3</f>
         <v>0.5</v>
       </c>
-      <c r="HI11">
-        <f t="shared" si="3"/>
+      <c r="HI13">
+        <f>10-HI3</f>
         <v>0.5</v>
       </c>
-      <c r="HJ11">
-        <f t="shared" si="3"/>
+      <c r="HJ13">
+        <f>10-HJ3</f>
         <v>0.5</v>
       </c>
-      <c r="HK11">
-        <f t="shared" si="3"/>
+      <c r="HK13">
+        <f>10-HK3</f>
         <v>0.5</v>
       </c>
-      <c r="HL11">
-        <f t="shared" si="3"/>
+      <c r="HL13">
+        <f>10-HL3</f>
         <v>0.5</v>
       </c>
-      <c r="HM11">
-        <f t="shared" si="3"/>
+      <c r="HM13">
+        <f>10-HM3</f>
         <v>0.5</v>
       </c>
-      <c r="HN11">
-        <f t="shared" si="3"/>
+      <c r="HN13">
+        <f>10-HN3</f>
         <v>0.5</v>
       </c>
-      <c r="HO11">
-        <f t="shared" si="3"/>
+      <c r="HO13">
+        <f>10-HO3</f>
         <v>0.5</v>
       </c>
-      <c r="HP11">
-        <f t="shared" si="3"/>
+      <c r="HP13">
+        <f>10-HP3</f>
         <v>0.5</v>
       </c>
-      <c r="HQ11">
-        <f t="shared" si="3"/>
+      <c r="HQ13">
+        <f>10-HQ3</f>
         <v>0.5</v>
       </c>
-      <c r="HR11">
-        <f t="shared" si="3"/>
+      <c r="HR13">
+        <f>10-HR3</f>
         <v>0.5</v>
       </c>
-      <c r="HS11">
-        <f t="shared" si="3"/>
+      <c r="HS13">
+        <f>10-HS3</f>
         <v>0.5</v>
       </c>
-      <c r="HT11">
-        <f t="shared" si="3"/>
+      <c r="HT13">
+        <f>10-HT3</f>
         <v>0.5</v>
       </c>
-      <c r="HU11">
-        <f t="shared" si="3"/>
+      <c r="HU13">
+        <f>10-HU3</f>
         <v>0.5</v>
       </c>
-      <c r="HV11">
-        <f t="shared" si="3"/>
+      <c r="HV13">
+        <f>10-HV3</f>
         <v>0.5</v>
       </c>
-      <c r="HW11">
-        <f t="shared" si="3"/>
+      <c r="HW13">
+        <f>10-HW3</f>
         <v>0.5</v>
       </c>
-      <c r="HX11">
-        <f t="shared" si="3"/>
+      <c r="HX13">
+        <f>10-HX3</f>
         <v>0.5</v>
       </c>
-      <c r="HY11">
-        <f t="shared" si="3"/>
+      <c r="HY13">
+        <f>10-HY3</f>
         <v>0.5</v>
       </c>
-      <c r="HZ11">
-        <f t="shared" si="3"/>
+      <c r="HZ13">
+        <f>10-HZ3</f>
         <v>0.5</v>
       </c>
-      <c r="IA11">
-        <f t="shared" si="3"/>
+      <c r="IA13">
+        <f>10-IA3</f>
         <v>0.5</v>
       </c>
-      <c r="IB11">
-        <f t="shared" si="3"/>
+      <c r="IB13">
+        <f>10-IB3</f>
         <v>0.5</v>
       </c>
-      <c r="IC11">
-        <f t="shared" si="3"/>
+      <c r="IC13">
+        <f>10-IC3</f>
         <v>0.5</v>
       </c>
-      <c r="ID11">
-        <f t="shared" si="3"/>
+      <c r="ID13">
+        <f>10-ID3</f>
         <v>0.5</v>
       </c>
-      <c r="IE11">
-        <f t="shared" si="3"/>
+      <c r="IE13">
+        <f>10-IE3</f>
         <v>0.5</v>
       </c>
-      <c r="IF11">
-        <f t="shared" si="3"/>
+      <c r="IF13">
+        <f>10-IF3</f>
         <v>0.5</v>
       </c>
-      <c r="IG11">
-        <f t="shared" si="3"/>
+      <c r="IG13">
+        <f>10-IG3</f>
         <v>0.5</v>
       </c>
-      <c r="IH11">
-        <f t="shared" si="3"/>
+      <c r="IH13">
+        <f>10-IH3</f>
         <v>0.5</v>
       </c>
-      <c r="II11">
-        <f t="shared" si="3"/>
+      <c r="II13">
+        <f>10-II3</f>
         <v>0.5</v>
       </c>
-      <c r="IJ11">
-        <f t="shared" si="3"/>
+      <c r="IJ13">
+        <f>10-IJ3</f>
         <v>0.5</v>
       </c>
-      <c r="IK11">
-        <f t="shared" si="3"/>
+      <c r="IK13">
+        <f>10-IK3</f>
         <v>0.5</v>
       </c>
-      <c r="IL11">
-        <f t="shared" si="3"/>
+      <c r="IL13">
+        <f>10-IL3</f>
         <v>0.5</v>
       </c>
-      <c r="IM11">
-        <f t="shared" si="3"/>
+      <c r="IM13">
+        <f>10-IM3</f>
         <v>0.5</v>
       </c>
-      <c r="IN11">
-        <f t="shared" si="3"/>
+      <c r="IN13">
+        <f>10-IN3</f>
         <v>0.5</v>
       </c>
-      <c r="IO11">
-        <f t="shared" si="3"/>
+      <c r="IO13">
+        <f>10-IO3</f>
         <v>0.5</v>
       </c>
-      <c r="IP11">
-        <f t="shared" si="3"/>
+      <c r="IP13">
+        <f>10-IP3</f>
         <v>0.5</v>
       </c>
-      <c r="IQ11">
-        <f t="shared" si="3"/>
+      <c r="IQ13">
+        <f>10-IQ3</f>
         <v>0.5</v>
       </c>
-      <c r="IR11">
-        <f t="shared" si="3"/>
+      <c r="IR13">
+        <f>10-IR3</f>
         <v>0.5</v>
       </c>
-      <c r="IS11">
-        <f t="shared" si="3"/>
+      <c r="IS13">
+        <f>10-IS3</f>
         <v>0.5</v>
       </c>
-      <c r="IT11">
-        <f t="shared" si="3"/>
+      <c r="IT13">
+        <f>10-IT3</f>
         <v>0.5</v>
       </c>
-      <c r="IU11">
-        <f t="shared" si="3"/>
+      <c r="IU13">
+        <f>10-IU3</f>
         <v>0.5</v>
       </c>
-      <c r="IV11">
-        <f t="shared" si="3"/>
+      <c r="IV13">
+        <f>10-IV3</f>
         <v>0.5</v>
       </c>
-      <c r="IW11">
-        <f t="shared" si="3"/>
+      <c r="IW13">
+        <f>10-IW3</f>
         <v>3.5</v>
       </c>
-      <c r="IX11">
-        <f t="shared" si="3"/>
+      <c r="IX13">
+        <f>10-IX3</f>
         <v>3.5</v>
       </c>
-      <c r="IY11">
-        <f t="shared" ref="IY11:LJ11" si="4">10-IY3</f>
+      <c r="IY13">
+        <f>10-IY3</f>
         <v>3.5</v>
       </c>
-      <c r="IZ11">
-        <f t="shared" si="4"/>
+      <c r="IZ13">
+        <f>10-IZ3</f>
         <v>3.5</v>
       </c>
-      <c r="JA11">
-        <f t="shared" si="4"/>
+      <c r="JA13">
+        <f>10-JA3</f>
         <v>3.5</v>
       </c>
-      <c r="JB11">
-        <f t="shared" si="4"/>
+      <c r="JB13">
+        <f>10-JB3</f>
         <v>3.5</v>
       </c>
-      <c r="JC11">
-        <f t="shared" si="4"/>
+      <c r="JC13">
+        <f>10-JC3</f>
         <v>3.5</v>
       </c>
-      <c r="JD11">
-        <f t="shared" si="4"/>
+      <c r="JD13">
+        <f>10-JD3</f>
         <v>3.3896445131375579</v>
       </c>
-      <c r="JE11">
-        <f t="shared" si="4"/>
+      <c r="JE13">
+        <f>10-JE3</f>
         <v>3.0187017001545593</v>
       </c>
-      <c r="JF11">
-        <f t="shared" si="4"/>
+      <c r="JF13">
+        <f>10-JF3</f>
         <v>2.6477588871715607</v>
       </c>
-      <c r="JG11">
-        <f t="shared" si="4"/>
+      <c r="JG13">
+        <f>10-JG3</f>
         <v>2.2768160741885621</v>
       </c>
-      <c r="JH11">
-        <f t="shared" si="4"/>
+      <c r="JH13">
+        <f>10-JH3</f>
         <v>1.9058732612055636</v>
       </c>
-      <c r="JI11">
-        <f t="shared" si="4"/>
+      <c r="JI13">
+        <f>10-JI3</f>
         <v>1.5349304482225659</v>
       </c>
-      <c r="JJ11">
-        <f t="shared" si="4"/>
+      <c r="JJ13">
+        <f>10-JJ3</f>
         <v>1.1639876352395682</v>
       </c>
-      <c r="JK11">
-        <f t="shared" si="4"/>
+      <c r="JK13">
+        <f>10-JK3</f>
         <v>0.79304482225656869</v>
       </c>
-      <c r="JL11">
-        <f t="shared" si="4"/>
+      <c r="JL13">
+        <f>10-JL3</f>
         <v>0.5</v>
       </c>
-      <c r="JM11">
-        <f t="shared" si="4"/>
+      <c r="JM13">
+        <f>10-JM3</f>
         <v>0.5</v>
       </c>
-      <c r="JN11">
-        <f t="shared" si="4"/>
+      <c r="JN13">
+        <f>10-JN3</f>
         <v>0.5</v>
       </c>
-      <c r="JO11">
-        <f t="shared" si="4"/>
+      <c r="JO13">
+        <f>10-JO3</f>
         <v>0.5</v>
       </c>
-      <c r="JP11">
-        <f t="shared" si="4"/>
+      <c r="JP13">
+        <f>10-JP3</f>
         <v>0.5</v>
       </c>
-      <c r="JQ11">
-        <f t="shared" si="4"/>
+      <c r="JQ13">
+        <f>10-JQ3</f>
         <v>0.5</v>
       </c>
-      <c r="JR11">
-        <f t="shared" si="4"/>
+      <c r="JR13">
+        <f>10-JR3</f>
         <v>0.5</v>
       </c>
-      <c r="JS11">
-        <f t="shared" si="4"/>
+      <c r="JS13">
+        <f>10-JS3</f>
         <v>0.5</v>
       </c>
-      <c r="JT11">
-        <f t="shared" si="4"/>
+      <c r="JT13">
+        <f>10-JT3</f>
         <v>0.5</v>
       </c>
-      <c r="JU11">
-        <f t="shared" si="4"/>
+      <c r="JU13">
+        <f>10-JU3</f>
         <v>0.5</v>
       </c>
-      <c r="JV11">
-        <f t="shared" si="4"/>
+      <c r="JV13">
+        <f>10-JV3</f>
         <v>0.5</v>
       </c>
-      <c r="JW11">
-        <f t="shared" si="4"/>
+      <c r="JW13">
+        <f>10-JW3</f>
         <v>0.5</v>
       </c>
-      <c r="JX11">
-        <f t="shared" si="4"/>
+      <c r="JX13">
+        <f>10-JX3</f>
         <v>0.5</v>
       </c>
-      <c r="JY11">
-        <f t="shared" si="4"/>
+      <c r="JY13">
+        <f>10-JY3</f>
         <v>3.5</v>
       </c>
-      <c r="JZ11">
-        <f t="shared" si="4"/>
+      <c r="JZ13">
+        <f>10-JZ3</f>
         <v>3.5</v>
       </c>
-      <c r="KA11">
-        <f t="shared" si="4"/>
+      <c r="KA13">
+        <f>10-KA3</f>
         <v>3.5</v>
       </c>
-      <c r="KB11">
-        <f t="shared" si="4"/>
+      <c r="KB13">
+        <f>10-KB3</f>
         <v>3.5</v>
       </c>
-      <c r="KC11">
-        <f t="shared" si="4"/>
+      <c r="KC13">
+        <f>10-KC3</f>
         <v>3.5</v>
       </c>
-      <c r="KD11">
-        <f t="shared" si="4"/>
+      <c r="KD13">
+        <f>10-KD3</f>
         <v>3.5</v>
       </c>
-      <c r="KE11">
-        <f t="shared" si="4"/>
+      <c r="KE13">
+        <f>10-KE3</f>
         <v>3.5</v>
       </c>
-      <c r="KF11">
-        <f t="shared" si="4"/>
+      <c r="KF13">
+        <f>10-KF3</f>
         <v>3.5</v>
       </c>
-      <c r="KG11">
-        <f t="shared" si="4"/>
+      <c r="KG13">
+        <f>10-KG3</f>
         <v>3.5</v>
       </c>
-      <c r="KH11">
-        <f t="shared" si="4"/>
+      <c r="KH13">
+        <f>10-KH3</f>
         <v>3.5</v>
       </c>
-      <c r="KI11">
-        <f t="shared" si="4"/>
+      <c r="KI13">
+        <f>10-KI3</f>
         <v>3.3682284040995603</v>
       </c>
-      <c r="KJ11">
-        <f t="shared" si="4"/>
+      <c r="KJ13">
+        <f>10-KJ3</f>
         <v>3.1172348880987242</v>
       </c>
-      <c r="KK11">
-        <f t="shared" si="4"/>
+      <c r="KK13">
+        <f>10-KK3</f>
         <v>3.5</v>
       </c>
-      <c r="KL11">
-        <f t="shared" si="4"/>
+      <c r="KL13">
+        <f>10-KL3</f>
         <v>3.5</v>
       </c>
-      <c r="KM11">
-        <f t="shared" si="4"/>
+      <c r="KM13">
+        <f>10-KM3</f>
         <v>3.5</v>
       </c>
-      <c r="KN11">
-        <f t="shared" si="4"/>
+      <c r="KN13">
+        <f>10-KN3</f>
         <v>3.5</v>
       </c>
-      <c r="KO11">
-        <f t="shared" si="4"/>
+      <c r="KO13">
+        <f>10-KO3</f>
         <v>3.5</v>
       </c>
-      <c r="KP11">
-        <f t="shared" si="4"/>
+      <c r="KP13">
+        <f>10-KP3</f>
         <v>3.5</v>
       </c>
-      <c r="KQ11">
-        <f t="shared" si="4"/>
+      <c r="KQ13">
+        <f>10-KQ3</f>
         <v>3.5</v>
       </c>
-      <c r="KR11">
-        <f t="shared" si="4"/>
+      <c r="KR13">
+        <f>10-KR3</f>
         <v>3.3042563143124406</v>
       </c>
-      <c r="KS11">
-        <f t="shared" si="4"/>
+      <c r="KS13">
+        <f>10-KS3</f>
         <v>3.0236202057998129</v>
       </c>
-      <c r="KT11">
-        <f t="shared" si="4"/>
+      <c r="KT13">
+        <f>10-KT3</f>
         <v>2.7429840972871844</v>
       </c>
-      <c r="KU11">
-        <f t="shared" si="4"/>
+      <c r="KU13">
+        <f>10-KU3</f>
         <v>2.4623479887745559</v>
       </c>
-      <c r="KV11">
-        <f t="shared" si="4"/>
+      <c r="KV13">
+        <f>10-KV3</f>
         <v>2.1817118802619273</v>
       </c>
-      <c r="KW11">
-        <f t="shared" si="4"/>
+      <c r="KW13">
+        <f>10-KW3</f>
         <v>1.9010757717492979</v>
       </c>
-      <c r="KX11">
-        <f t="shared" si="4"/>
+      <c r="KX13">
+        <f>10-KX3</f>
         <v>1.6204396632366702</v>
       </c>
-      <c r="KY11">
-        <f t="shared" si="4"/>
+      <c r="KY13">
+        <f>10-KY3</f>
         <v>1.3398035547240426</v>
       </c>
-      <c r="KZ11">
-        <f t="shared" si="4"/>
+      <c r="KZ13">
+        <f>10-KZ3</f>
         <v>1.0591674462114131</v>
       </c>
-      <c r="LA11">
-        <f t="shared" si="4"/>
+      <c r="LA13">
+        <f>10-LA3</f>
         <v>0.77853133769878369</v>
       </c>
-      <c r="LB11">
-        <f t="shared" si="4"/>
+      <c r="LB13">
+        <f>10-LB3</f>
         <v>3.5</v>
       </c>
-      <c r="LC11">
-        <f t="shared" si="4"/>
+      <c r="LC13">
+        <f>10-LC3</f>
         <v>3.5</v>
       </c>
-      <c r="LD11">
-        <f t="shared" si="4"/>
+      <c r="LD13">
+        <f>10-LD3</f>
         <v>3.5</v>
       </c>
-      <c r="LE11">
-        <f t="shared" si="4"/>
+      <c r="LE13">
+        <f>10-LE3</f>
         <v>3.5</v>
       </c>
-      <c r="LF11">
-        <f t="shared" si="4"/>
+      <c r="LF13">
+        <f>10-LF3</f>
         <v>3.5</v>
       </c>
-      <c r="LG11">
-        <f t="shared" si="4"/>
+      <c r="LG13">
+        <f>10-LG3</f>
         <v>3.4344925192074403</v>
       </c>
-      <c r="LH11">
-        <f t="shared" si="4"/>
+      <c r="LH13">
+        <f>10-LH3</f>
         <v>3.1918722199757372</v>
       </c>
-      <c r="LI11">
-        <f t="shared" si="4"/>
+      <c r="LI13">
+        <f>10-LI3</f>
         <v>2.949251920744036</v>
       </c>
-      <c r="LJ11">
-        <f t="shared" si="4"/>
+      <c r="LJ13">
+        <f>10-LJ3</f>
         <v>2.7066316215123329</v>
       </c>
-      <c r="LK11">
-        <f t="shared" ref="LK11:NV11" si="5">10-LK3</f>
+      <c r="LK13">
+        <f>10-LK3</f>
         <v>2.4640113222806299</v>
       </c>
-      <c r="LL11">
-        <f t="shared" si="5"/>
+      <c r="LL13">
+        <f>10-LL3</f>
         <v>2.2213910230489287</v>
       </c>
-      <c r="LM11">
-        <f t="shared" si="5"/>
+      <c r="LM13">
+        <f>10-LM3</f>
         <v>1.9787707238172256</v>
       </c>
-      <c r="LN11">
-        <f t="shared" si="5"/>
+      <c r="LN13">
+        <f>10-LN3</f>
         <v>1.7361504245855244</v>
       </c>
-      <c r="LO11">
-        <f t="shared" si="5"/>
+      <c r="LO13">
+        <f>10-LO3</f>
         <v>1.4935301253538213</v>
       </c>
-      <c r="LP11">
-        <f t="shared" si="5"/>
+      <c r="LP13">
+        <f>10-LP3</f>
         <v>1.2509098261221183</v>
       </c>
-      <c r="LQ11">
-        <f t="shared" si="5"/>
+      <c r="LQ13">
+        <f>10-LQ3</f>
         <v>1.0082895268904171</v>
       </c>
-      <c r="LR11">
-        <f t="shared" si="5"/>
+      <c r="LR13">
+        <f>10-LR3</f>
         <v>0.76566922765871404</v>
       </c>
-      <c r="LS11">
-        <f t="shared" si="5"/>
+      <c r="LS13">
+        <f>10-LS3</f>
         <v>3.5</v>
       </c>
-      <c r="LT11">
-        <f t="shared" si="5"/>
+      <c r="LT13">
+        <f>10-LT3</f>
         <v>3.5</v>
       </c>
-      <c r="LU11">
-        <f t="shared" si="5"/>
+      <c r="LU13">
+        <f>10-LU3</f>
         <v>3.5</v>
       </c>
-      <c r="LV11">
-        <f t="shared" si="5"/>
+      <c r="LV13">
+        <f>10-LV3</f>
         <v>3.5</v>
       </c>
-      <c r="LW11">
-        <f t="shared" si="5"/>
+      <c r="LW13">
+        <f>10-LW3</f>
         <v>3.5</v>
       </c>
-      <c r="LX11">
-        <f t="shared" si="5"/>
+      <c r="LX13">
+        <f>10-LX3</f>
         <v>3.5</v>
       </c>
-      <c r="LY11">
-        <f t="shared" si="5"/>
+      <c r="LY13">
+        <f>10-LY3</f>
         <v>3.5</v>
       </c>
-      <c r="LZ11">
-        <f t="shared" si="5"/>
+      <c r="LZ13">
+        <f>10-LZ3</f>
         <v>3.5</v>
       </c>
-      <c r="MA11">
-        <f t="shared" si="5"/>
+      <c r="MA13">
+        <f>10-MA3</f>
         <v>3.5</v>
       </c>
-      <c r="MB11">
-        <f t="shared" si="5"/>
+      <c r="MB13">
+        <f>10-MB3</f>
         <v>3.2296703296703297</v>
       </c>
-      <c r="MC11">
-        <f t="shared" si="5"/>
+      <c r="MC13">
+        <f>10-MC3</f>
         <v>2.8529042386185246</v>
       </c>
-      <c r="MD11">
-        <f t="shared" si="5"/>
+      <c r="MD13">
+        <f>10-MD3</f>
         <v>2.4761381475667186</v>
       </c>
-      <c r="ME11">
-        <f t="shared" si="5"/>
+      <c r="ME13">
+        <f>10-ME3</f>
         <v>2.0993720565149143</v>
       </c>
-      <c r="MF11">
-        <f t="shared" si="5"/>
+      <c r="MF13">
+        <f>10-MF3</f>
         <v>1.7226059654631083</v>
       </c>
-      <c r="MG11">
-        <f t="shared" si="5"/>
+      <c r="MG13">
+        <f>10-MG3</f>
         <v>1.345839874411304</v>
       </c>
-      <c r="MH11">
-        <f t="shared" si="5"/>
+      <c r="MH13">
+        <f>10-MH3</f>
         <v>3.5</v>
       </c>
-      <c r="MI11">
-        <f t="shared" si="5"/>
+      <c r="MI13">
+        <f>10-MI3</f>
         <v>3.5</v>
       </c>
-      <c r="MJ11">
-        <f t="shared" si="5"/>
+      <c r="MJ13">
+        <f>10-MJ3</f>
         <v>3.5</v>
       </c>
-      <c r="MK11">
-        <f t="shared" si="5"/>
+      <c r="MK13">
+        <f>10-MK3</f>
         <v>3.5</v>
       </c>
-      <c r="ML11">
-        <f t="shared" si="5"/>
+      <c r="ML13">
+        <f>10-ML3</f>
         <v>3.5</v>
       </c>
-      <c r="MM11">
-        <f t="shared" si="5"/>
+      <c r="MM13">
+        <f>10-MM3</f>
         <v>3.5</v>
       </c>
-      <c r="MN11">
-        <f t="shared" si="5"/>
+      <c r="MN13">
+        <f>10-MN3</f>
         <v>3.5</v>
       </c>
-      <c r="MO11">
-        <f t="shared" si="5"/>
+      <c r="MO13">
+        <f>10-MO3</f>
         <v>3.5</v>
       </c>
-      <c r="MP11">
-        <f t="shared" si="5"/>
+      <c r="MP13">
+        <f>10-MP3</f>
         <v>3.5</v>
       </c>
-      <c r="MQ11">
-        <f t="shared" si="5"/>
+      <c r="MQ13">
+        <f>10-MQ3</f>
         <v>3.5</v>
       </c>
-      <c r="MR11">
-        <f t="shared" si="5"/>
+      <c r="MR13">
+        <f>10-MR3</f>
         <v>3.5</v>
       </c>
-      <c r="MS11">
-        <f t="shared" si="5"/>
+      <c r="MS13">
+        <f>10-MS3</f>
         <v>3.5</v>
       </c>
-      <c r="MT11">
-        <f t="shared" si="5"/>
+      <c r="MT13">
+        <f>10-MT3</f>
         <v>3.27470664928292</v>
       </c>
-      <c r="MU11">
-        <f t="shared" si="5"/>
+      <c r="MU13">
+        <f>10-MU3</f>
         <v>2.9617992177314214</v>
       </c>
-      <c r="MV11">
-        <f t="shared" si="5"/>
+      <c r="MV13">
+        <f>10-MV3</f>
         <v>2.6488917861799219</v>
       </c>
-      <c r="MW11">
-        <f t="shared" si="5"/>
+      <c r="MW13">
+        <f>10-MW3</f>
         <v>2.3359843546284216</v>
       </c>
-      <c r="MX11">
-        <f t="shared" si="5"/>
+      <c r="MX13">
+        <f>10-MX3</f>
         <v>2.023076923076923</v>
       </c>
-      <c r="MY11">
-        <f t="shared" si="5"/>
+      <c r="MY13">
+        <f>10-MY3</f>
         <v>1.7101694915254235</v>
       </c>
-      <c r="MZ11">
-        <f t="shared" si="5"/>
+      <c r="MZ13">
+        <f>10-MZ3</f>
         <v>1.3972620599739258</v>
       </c>
-      <c r="NA11">
-        <f t="shared" si="5"/>
+      <c r="NA13">
+        <f>10-NA3</f>
         <v>1.0843546284224264</v>
       </c>
-      <c r="NB11">
-        <f t="shared" si="5"/>
+      <c r="NB13">
+        <f>10-NB3</f>
         <v>0.77144719687092511</v>
       </c>
-      <c r="NC11">
-        <f t="shared" si="5"/>
+      <c r="NC13">
+        <f>10-NC3</f>
         <v>0.5</v>
       </c>
-      <c r="ND11">
-        <f t="shared" si="5"/>
+      <c r="ND13">
+        <f>10-ND3</f>
         <v>0.5</v>
       </c>
-      <c r="NE11">
-        <f t="shared" si="5"/>
+      <c r="NE13">
+        <f>10-NE3</f>
         <v>0.5</v>
       </c>
-      <c r="NF11">
-        <f t="shared" si="5"/>
+      <c r="NF13">
+        <f>10-NF3</f>
         <v>0.5</v>
       </c>
-      <c r="NG11">
-        <f t="shared" si="5"/>
+      <c r="NG13">
+        <f>10-NG3</f>
         <v>0.5</v>
       </c>
-      <c r="NH11">
-        <f t="shared" si="5"/>
+      <c r="NH13">
+        <f>10-NH3</f>
         <v>0.5</v>
       </c>
-      <c r="NI11">
-        <f t="shared" si="5"/>
+      <c r="NI13">
+        <f>10-NI3</f>
         <v>0.5</v>
       </c>
-      <c r="NJ11">
-        <f t="shared" si="5"/>
+      <c r="NJ13">
+        <f>10-NJ3</f>
         <v>0.5</v>
       </c>
-      <c r="NK11">
-        <f t="shared" si="5"/>
+      <c r="NK13">
+        <f>10-NK3</f>
         <v>3.5</v>
       </c>
-      <c r="NL11">
-        <f t="shared" si="5"/>
+      <c r="NL13">
+        <f>10-NL3</f>
         <v>3.5</v>
       </c>
-      <c r="NM11">
-        <f t="shared" si="5"/>
+      <c r="NM13">
+        <f>10-NM3</f>
         <v>3.5</v>
       </c>
-      <c r="NN11">
-        <f t="shared" si="5"/>
+      <c r="NN13">
+        <f>10-NN3</f>
         <v>3.5</v>
       </c>
-      <c r="NO11">
-        <f t="shared" si="5"/>
+      <c r="NO13">
+        <f>10-NO3</f>
         <v>3.5</v>
       </c>
-      <c r="NP11">
-        <f t="shared" si="5"/>
+      <c r="NP13">
+        <f>10-NP3</f>
         <v>3.5</v>
       </c>
-      <c r="NQ11">
-        <f t="shared" si="5"/>
+      <c r="NQ13">
+        <f>10-NQ3</f>
         <v>3.5</v>
       </c>
-      <c r="NR11">
-        <f t="shared" si="5"/>
+      <c r="NR13">
+        <f>10-NR3</f>
         <v>3.5</v>
       </c>
-      <c r="NS11">
-        <f t="shared" si="5"/>
+      <c r="NS13">
+        <f>10-NS3</f>
         <v>3.4207281268349963</v>
       </c>
-      <c r="NT11">
-        <f t="shared" si="5"/>
+      <c r="NT13">
+        <f>10-NT3</f>
         <v>3.0684086905460948</v>
       </c>
-      <c r="NU11">
-        <f t="shared" si="5"/>
+      <c r="NU13">
+        <f>10-NU3</f>
         <v>2.7160892542571933</v>
       </c>
-      <c r="NV11">
-        <f t="shared" si="5"/>
+      <c r="NV13">
+        <f>10-NV3</f>
         <v>2.3637698179682909</v>
       </c>
-      <c r="NW11">
-        <f t="shared" ref="NW11:QH11" si="6">10-NW3</f>
+      <c r="NW13">
+        <f>10-NW3</f>
         <v>2.0114503816793894</v>
       </c>
-      <c r="NX11">
-        <f t="shared" si="6"/>
+      <c r="NX13">
+        <f>10-NX3</f>
         <v>1.659130945390487</v>
       </c>
-      <c r="NY11">
-        <f t="shared" si="6"/>
+      <c r="NY13">
+        <f>10-NY3</f>
         <v>1.3068115091015855</v>
       </c>
-      <c r="NZ11">
-        <f t="shared" si="6"/>
+      <c r="NZ13">
+        <f>10-NZ3</f>
         <v>0.954492072812684</v>
       </c>
-      <c r="OA11">
-        <f t="shared" si="6"/>
+      <c r="OA13">
+        <f>10-OA3</f>
         <v>0.6021726365237825</v>
       </c>
-      <c r="OB11">
-        <f t="shared" si="6"/>
+      <c r="OB13">
+        <f>10-OB3</f>
         <v>0.5</v>
       </c>
-      <c r="OC11">
-        <f t="shared" si="6"/>
+      <c r="OC13">
+        <f>10-OC3</f>
         <v>0.5</v>
       </c>
-      <c r="OD11">
-        <f t="shared" si="6"/>
+      <c r="OD13">
+        <f>10-OD3</f>
         <v>0.5</v>
       </c>
-      <c r="OE11">
-        <f t="shared" si="6"/>
+      <c r="OE13">
+        <f>10-OE3</f>
         <v>0.5</v>
       </c>
-      <c r="OF11">
-        <f t="shared" si="6"/>
+      <c r="OF13">
+        <f>10-OF3</f>
         <v>0.5</v>
       </c>
-      <c r="OG11">
-        <f t="shared" si="6"/>
+      <c r="OG13">
+        <f>10-OG3</f>
         <v>0.5</v>
       </c>
-      <c r="OH11">
-        <f t="shared" si="6"/>
+      <c r="OH13">
+        <f>10-OH3</f>
         <v>0.5</v>
       </c>
-      <c r="OI11">
-        <f t="shared" si="6"/>
+      <c r="OI13">
+        <f>10-OI3</f>
         <v>0.5</v>
       </c>
-      <c r="OJ11">
-        <f t="shared" si="6"/>
+      <c r="OJ13">
+        <f>10-OJ3</f>
         <v>0.5</v>
       </c>
-      <c r="OK11">
-        <f t="shared" si="6"/>
+      <c r="OK13">
+        <f>10-OK3</f>
         <v>0.5</v>
       </c>
-      <c r="OL11">
-        <f t="shared" si="6"/>
+      <c r="OL13">
+        <f>10-OL3</f>
         <v>0.5</v>
       </c>
-      <c r="OM11">
-        <f t="shared" si="6"/>
+      <c r="OM13">
+        <f>10-OM3</f>
         <v>0.5</v>
       </c>
-      <c r="ON11">
-        <f t="shared" si="6"/>
+      <c r="ON13">
+        <f>10-ON3</f>
         <v>0.5</v>
       </c>
-      <c r="OO11">
-        <f t="shared" si="6"/>
+      <c r="OO13">
+        <f>10-OO3</f>
         <v>0.5</v>
       </c>
-      <c r="OP11">
-        <f t="shared" si="6"/>
+      <c r="OP13">
+        <f>10-OP3</f>
         <v>0.5</v>
       </c>
-      <c r="OQ11">
-        <f t="shared" si="6"/>
+      <c r="OQ13">
+        <f>10-OQ3</f>
         <v>0.5</v>
       </c>
-      <c r="OR11">
-        <f t="shared" si="6"/>
+      <c r="OR13">
+        <f>10-OR3</f>
         <v>0.5</v>
       </c>
-      <c r="OS11">
-        <f t="shared" si="6"/>
+      <c r="OS13">
+        <f>10-OS3</f>
         <v>0.5</v>
       </c>
-      <c r="OT11">
-        <f t="shared" si="6"/>
+      <c r="OT13">
+        <f>10-OT3</f>
         <v>0.5</v>
       </c>
-      <c r="OU11">
-        <f t="shared" si="6"/>
+      <c r="OU13">
+        <f>10-OU3</f>
         <v>3.5</v>
       </c>
-      <c r="OV11">
-        <f t="shared" si="6"/>
+      <c r="OV13">
+        <f>10-OV3</f>
         <v>3.5</v>
       </c>
-      <c r="OW11">
-        <f t="shared" si="6"/>
+      <c r="OW13">
+        <f>10-OW3</f>
         <v>3.5</v>
       </c>
-      <c r="OX11">
-        <f t="shared" si="6"/>
+      <c r="OX13">
+        <f>10-OX3</f>
         <v>3.5</v>
       </c>
-      <c r="OY11">
-        <f t="shared" si="6"/>
+      <c r="OY13">
+        <f>10-OY3</f>
         <v>3.5</v>
       </c>
-      <c r="OZ11">
-        <f t="shared" si="6"/>
+      <c r="OZ13">
+        <f>10-OZ3</f>
         <v>3.5</v>
       </c>
-      <c r="PA11">
-        <f t="shared" si="6"/>
+      <c r="PA13">
+        <f>10-PA3</f>
         <v>3.5</v>
       </c>
-      <c r="PB11">
-        <f t="shared" si="6"/>
+      <c r="PB13">
+        <f>10-PB3</f>
         <v>3.4440934933670242</v>
       </c>
-      <c r="PC11">
-        <f t="shared" si="6"/>
+      <c r="PC13">
+        <f>10-PC3</f>
         <v>3.0650663297536322</v>
       </c>
-      <c r="PD11">
-        <f t="shared" si="6"/>
+      <c r="PD13">
+        <f>10-PD3</f>
         <v>2.6860391661402403</v>
       </c>
-      <c r="PE11">
-        <f t="shared" si="6"/>
+      <c r="PE13">
+        <f>10-PE3</f>
         <v>2.3070120025268483</v>
       </c>
-      <c r="PF11">
-        <f t="shared" si="6"/>
+      <c r="PF13">
+        <f>10-PF3</f>
         <v>1.9279848389134564</v>
       </c>
-      <c r="PG11">
-        <f t="shared" si="6"/>
+      <c r="PG13">
+        <f>10-PG3</f>
         <v>1.5489576753000627</v>
       </c>
-      <c r="PH11">
-        <f t="shared" si="6"/>
+      <c r="PH13">
+        <f>10-PH3</f>
         <v>1.1699305116866707</v>
       </c>
-      <c r="PI11">
-        <f t="shared" si="6"/>
+      <c r="PI13">
+        <f>10-PI3</f>
         <v>0.79090334807327878</v>
       </c>
-      <c r="PJ11">
-        <f t="shared" si="6"/>
+      <c r="PJ13">
+        <f>10-PJ3</f>
         <v>0.5</v>
       </c>
-      <c r="PK11">
-        <f t="shared" si="6"/>
+      <c r="PK13">
+        <f>10-PK3</f>
         <v>0.5</v>
       </c>
-      <c r="PL11">
-        <f t="shared" si="6"/>
+      <c r="PL13">
+        <f>10-PL3</f>
         <v>0.5</v>
       </c>
-      <c r="PM11">
-        <f t="shared" si="6"/>
+      <c r="PM13">
+        <f>10-PM3</f>
         <v>0.5</v>
       </c>
-      <c r="PN11">
-        <f t="shared" si="6"/>
+      <c r="PN13">
+        <f>10-PN3</f>
         <v>0.5</v>
       </c>
-      <c r="PO11">
-        <f t="shared" si="6"/>
+      <c r="PO13">
+        <f>10-PO3</f>
         <v>0.5</v>
       </c>
-      <c r="PP11">
-        <f t="shared" si="6"/>
+      <c r="PP13">
+        <f>10-PP3</f>
         <v>0.5</v>
       </c>
-      <c r="PQ11">
-        <f t="shared" si="6"/>
+      <c r="PQ13">
+        <f>10-PQ3</f>
         <v>0.5</v>
       </c>
-      <c r="PR11">
-        <f t="shared" si="6"/>
+      <c r="PR13">
+        <f>10-PR3</f>
         <v>0.5</v>
       </c>
-      <c r="PS11">
-        <f t="shared" si="6"/>
+      <c r="PS13">
+        <f>10-PS3</f>
         <v>0.5</v>
       </c>
-      <c r="PT11">
-        <f t="shared" si="6"/>
+      <c r="PT13">
+        <f>10-PT3</f>
         <v>0.5</v>
       </c>
-      <c r="PU11">
-        <f t="shared" si="6"/>
+      <c r="PU13">
+        <f>10-PU3</f>
         <v>0.5</v>
       </c>
-      <c r="PV11">
-        <f t="shared" si="6"/>
+      <c r="PV13">
+        <f>10-PV3</f>
         <v>3.5</v>
       </c>
-      <c r="PW11">
-        <f t="shared" si="6"/>
+      <c r="PW13">
+        <f>10-PW3</f>
         <v>3.5</v>
       </c>
-      <c r="PX11">
-        <f t="shared" si="6"/>
+      <c r="PX13">
+        <f>10-PX3</f>
         <v>3.5</v>
       </c>
-      <c r="PY11">
-        <f t="shared" si="6"/>
+      <c r="PY13">
+        <f>10-PY3</f>
         <v>3.5</v>
       </c>
-      <c r="PZ11">
-        <f t="shared" si="6"/>
+      <c r="PZ13">
+        <f>10-PZ3</f>
         <v>3.5</v>
       </c>
-      <c r="QA11">
-        <f t="shared" si="6"/>
+      <c r="QA13">
+        <f>10-QA3</f>
         <v>3.5</v>
       </c>
-      <c r="QB11">
-        <f t="shared" si="6"/>
+      <c r="QB13">
+        <f>10-QB3</f>
         <v>3.5</v>
       </c>
-      <c r="QC11">
-        <f t="shared" si="6"/>
+      <c r="QC13">
+        <f>10-QC3</f>
         <v>3.5</v>
       </c>
-      <c r="QD11">
-        <f t="shared" si="6"/>
+      <c r="QD13">
+        <f>10-QD3</f>
         <v>3.5</v>
       </c>
-      <c r="QE11">
-        <f t="shared" si="6"/>
+      <c r="QE13">
+        <f>10-QE3</f>
         <v>3.3771736737838429</v>
       </c>
-      <c r="QF11">
-        <f t="shared" si="6"/>
+      <c r="QF13">
+        <f>10-QF3</f>
         <v>3.1130310367598497</v>
       </c>
-      <c r="QG11">
-        <f t="shared" si="6"/>
+      <c r="QG13">
+        <f>10-QG3</f>
         <v>3.5</v>
       </c>
-      <c r="QH11">
-        <f t="shared" si="6"/>
+      <c r="QH13">
+        <f>10-QH3</f>
         <v>3.5</v>
       </c>
-      <c r="QI11">
-        <f t="shared" ref="QI11:ST11" si="7">10-QI3</f>
+      <c r="QI13">
+        <f>10-QI3</f>
         <v>3.5</v>
       </c>
-      <c r="QJ11">
-        <f t="shared" si="7"/>
+      <c r="QJ13">
+        <f>10-QJ3</f>
         <v>3.5</v>
       </c>
-      <c r="QK11">
-        <f t="shared" si="7"/>
+      <c r="QK13">
+        <f>10-QK3</f>
         <v>3.5</v>
       </c>
-      <c r="QL11">
-        <f t="shared" si="7"/>
+      <c r="QL13">
+        <f>10-QL3</f>
         <v>3.5</v>
       </c>
-      <c r="QM11">
-        <f t="shared" si="7"/>
+      <c r="QM13">
+        <f>10-QM3</f>
         <v>3.5</v>
       </c>
-      <c r="QN11">
-        <f t="shared" si="7"/>
+      <c r="QN13">
+        <f>10-QN3</f>
         <v>3.4920106524633816</v>
       </c>
-      <c r="QO11">
-        <f t="shared" si="7"/>
+      <c r="QO13">
+        <f>10-QO3</f>
         <v>3.2256990679094546</v>
       </c>
-      <c r="QP11">
-        <f t="shared" si="7"/>
+      <c r="QP13">
+        <f>10-QP3</f>
         <v>2.9593874833555258</v>
       </c>
-      <c r="QQ11">
-        <f t="shared" si="7"/>
+      <c r="QQ13">
+        <f>10-QQ3</f>
         <v>2.6930758988015979</v>
       </c>
-      <c r="QR11">
-        <f t="shared" si="7"/>
+      <c r="QR13">
+        <f>10-QR3</f>
         <v>2.4267643142476691</v>
       </c>
-      <c r="QS11">
-        <f t="shared" si="7"/>
+      <c r="QS13">
+        <f>10-QS3</f>
         <v>2.1604527296937412</v>
       </c>
-      <c r="QT11">
-        <f t="shared" si="7"/>
+      <c r="QT13">
+        <f>10-QT3</f>
         <v>1.8941411451398142</v>
       </c>
-      <c r="QU11">
-        <f t="shared" si="7"/>
+      <c r="QU13">
+        <f>10-QU3</f>
         <v>1.6278295605858855</v>
       </c>
-      <c r="QV11">
-        <f t="shared" si="7"/>
+      <c r="QV13">
+        <f>10-QV3</f>
         <v>1.3615179760319567</v>
       </c>
-      <c r="QW11">
-        <f t="shared" si="7"/>
+      <c r="QW13">
+        <f>10-QW3</f>
         <v>1.0952063914780297</v>
       </c>
-      <c r="QX11">
-        <f t="shared" si="7"/>
+      <c r="QX13">
+        <f>10-QX3</f>
         <v>0.82889480692410089</v>
       </c>
-      <c r="QY11">
-        <f t="shared" si="7"/>
+      <c r="QY13">
+        <f>10-QY3</f>
         <v>3.5</v>
       </c>
-      <c r="QZ11">
-        <f t="shared" si="7"/>
+      <c r="QZ13">
+        <f>10-QZ3</f>
         <v>3.5</v>
       </c>
-      <c r="RA11">
-        <f t="shared" si="7"/>
+      <c r="RA13">
+        <f>10-RA3</f>
         <v>3.5</v>
       </c>
-      <c r="RB11">
-        <f t="shared" si="7"/>
+      <c r="RB13">
+        <f>10-RB3</f>
         <v>3.5</v>
       </c>
-      <c r="RC11">
-        <f t="shared" si="7"/>
+      <c r="RC13">
+        <f>10-RC3</f>
         <v>3.5</v>
       </c>
-      <c r="RD11">
-        <f t="shared" si="7"/>
+      <c r="RD13">
+        <f>10-RD3</f>
         <v>3.5</v>
       </c>
-      <c r="RE11">
-        <f t="shared" si="7"/>
+      <c r="RE13">
+        <f>10-RE3</f>
         <v>3.5</v>
       </c>
-      <c r="RF11">
-        <f t="shared" si="7"/>
+      <c r="RF13">
+        <f>10-RF3</f>
         <v>3.5</v>
       </c>
-      <c r="RG11">
-        <f t="shared" si="7"/>
+      <c r="RG13">
+        <f>10-RG3</f>
         <v>3.5</v>
       </c>
-      <c r="RH11">
-        <f t="shared" si="7"/>
+      <c r="RH13">
+        <f>10-RH3</f>
         <v>3.5</v>
       </c>
-      <c r="RI11">
-        <f t="shared" si="7"/>
+      <c r="RI13">
+        <f>10-RI3</f>
         <v>3.5</v>
       </c>
-      <c r="RJ11">
-        <f t="shared" si="7"/>
+      <c r="RJ13">
+        <f>10-RJ3</f>
         <v>3.3523102310231021</v>
       </c>
-      <c r="RK11">
-        <f t="shared" si="7"/>
+      <c r="RK13">
+        <f>10-RK3</f>
         <v>3.0222772277227712</v>
       </c>
-      <c r="RL11">
-        <f t="shared" si="7"/>
+      <c r="RL13">
+        <f>10-RL3</f>
         <v>2.692244224422442</v>
       </c>
-      <c r="RM11">
-        <f t="shared" si="7"/>
+      <c r="RM13">
+        <f>10-RM3</f>
         <v>2.3622112211221129</v>
       </c>
-      <c r="RN11">
-        <f t="shared" si="7"/>
+      <c r="RN13">
+        <f>10-RN3</f>
         <v>2.032178217821782</v>
       </c>
-      <c r="RO11">
-        <f t="shared" si="7"/>
+      <c r="RO13">
+        <f>10-RO3</f>
         <v>1.7021452145214528</v>
       </c>
-      <c r="RP11">
-        <f t="shared" si="7"/>
+      <c r="RP13">
+        <f>10-RP3</f>
         <v>1.3721122112211219</v>
       </c>
-      <c r="RQ11">
-        <f t="shared" si="7"/>
+      <c r="RQ13">
+        <f>10-RQ3</f>
         <v>1.0420792079207928</v>
       </c>
-      <c r="RR11">
-        <f t="shared" si="7"/>
+      <c r="RR13">
+        <f>10-RR3</f>
         <v>0.71204620462046186</v>
       </c>
-      <c r="RS11">
-        <f t="shared" si="7"/>
+      <c r="RS13">
+        <f>10-RS3</f>
         <v>3.5</v>
       </c>
-      <c r="RT11">
-        <f t="shared" si="7"/>
+      <c r="RT13">
+        <f>10-RT3</f>
         <v>3.5</v>
       </c>
-      <c r="RU11">
-        <f t="shared" si="7"/>
+      <c r="RU13">
+        <f>10-RU3</f>
         <v>3.5</v>
       </c>
-      <c r="RV11">
-        <f t="shared" si="7"/>
+      <c r="RV13">
+        <f>10-RV3</f>
         <v>3.5</v>
       </c>
-      <c r="RW11">
-        <f t="shared" si="7"/>
+      <c r="RW13">
+        <f>10-RW3</f>
         <v>3.5</v>
       </c>
-      <c r="RX11">
-        <f t="shared" si="7"/>
+      <c r="RX13">
+        <f>10-RX3</f>
         <v>3.3306824012313996</v>
       </c>
-      <c r="RY11">
-        <f t="shared" si="7"/>
+      <c r="RY13">
+        <f>10-RY3</f>
         <v>3.0228322216521297</v>
       </c>
-      <c r="RZ11">
-        <f t="shared" si="7"/>
+      <c r="RZ13">
+        <f>10-RZ3</f>
         <v>2.7149820420728581</v>
       </c>
-      <c r="SA11">
-        <f t="shared" si="7"/>
+      <c r="SA13">
+        <f>10-SA3</f>
         <v>2.4071318624935856</v>
       </c>
-      <c r="SB11">
-        <f t="shared" si="7"/>
+      <c r="SB13">
+        <f>10-SB3</f>
         <v>2.0992816829143157</v>
       </c>
-      <c r="SC11">
-        <f t="shared" si="7"/>
+      <c r="SC13">
+        <f>10-SC3</f>
         <v>1.7914315033350441</v>
       </c>
-      <c r="SD11">
-        <f t="shared" si="7"/>
+      <c r="SD13">
+        <f>10-SD3</f>
         <v>1.4835813237557733</v>
       </c>
-      <c r="SE11">
-        <f t="shared" si="7"/>
+      <c r="SE13">
+        <f>10-SE3</f>
         <v>1.1757311441765026</v>
       </c>
-      <c r="SF11">
-        <f t="shared" si="7"/>
+      <c r="SF13">
+        <f>10-SF3</f>
         <v>0.86788096459723008</v>
       </c>
-      <c r="SG11">
-        <f t="shared" si="7"/>
+      <c r="SG13">
+        <f>10-SG3</f>
         <v>0.5</v>
       </c>
-      <c r="SH11">
-        <f t="shared" si="7"/>
+      <c r="SH13">
+        <f>10-SH3</f>
         <v>0.5</v>
       </c>
-      <c r="SI11">
-        <f t="shared" si="7"/>
+      <c r="SI13">
+        <f>10-SI3</f>
         <v>0.5</v>
       </c>
-      <c r="SJ11">
-        <f t="shared" si="7"/>
+      <c r="SJ13">
+        <f>10-SJ3</f>
         <v>0.5</v>
       </c>
-      <c r="SK11">
-        <f t="shared" si="7"/>
+      <c r="SK13">
+        <f>10-SK3</f>
         <v>0.5</v>
       </c>
-      <c r="SL11">
-        <f t="shared" si="7"/>
+      <c r="SL13">
+        <f>10-SL3</f>
         <v>0.5</v>
       </c>
-      <c r="SM11">
-        <f t="shared" si="7"/>
+      <c r="SM13">
+        <f>10-SM3</f>
         <v>0.5</v>
       </c>
-      <c r="SN11">
-        <f t="shared" si="7"/>
+      <c r="SN13">
+        <f>10-SN3</f>
         <v>0.5</v>
       </c>
-      <c r="SO11">
-        <f t="shared" si="7"/>
+      <c r="SO13">
+        <f>10-SO3</f>
         <v>0.5</v>
       </c>
-      <c r="SP11">
-        <f t="shared" si="7"/>
+      <c r="SP13">
+        <f>10-SP3</f>
         <v>0.5</v>
       </c>
-      <c r="SQ11">
-        <f t="shared" si="7"/>
+      <c r="SQ13">
+        <f>10-SQ3</f>
         <v>0.5</v>
       </c>
-      <c r="SR11">
-        <f t="shared" si="7"/>
+      <c r="SR13">
+        <f>10-SR3</f>
         <v>0.5</v>
       </c>
-      <c r="SS11">
-        <f t="shared" si="7"/>
+      <c r="SS13">
+        <f>10-SS3</f>
         <v>3.5</v>
       </c>
-      <c r="ST11">
-        <f t="shared" si="7"/>
+      <c r="ST13">
+        <f>10-ST3</f>
         <v>3.5</v>
       </c>
-      <c r="SU11">
-        <f t="shared" ref="SU11:VF11" si="8">10-SU3</f>
+      <c r="SU13">
+        <f>10-SU3</f>
         <v>3.5</v>
       </c>
-      <c r="SV11">
-        <f t="shared" si="8"/>
+      <c r="SV13">
+        <f>10-SV3</f>
         <v>3.5</v>
       </c>
-      <c r="SW11">
-        <f t="shared" si="8"/>
+      <c r="SW13">
+        <f>10-SW3</f>
         <v>3.5</v>
       </c>
-      <c r="SX11">
-        <f t="shared" si="8"/>
+      <c r="SX13">
+        <f>10-SX3</f>
         <v>3.5</v>
       </c>
-      <c r="SY11">
-        <f t="shared" si="8"/>
+      <c r="SY13">
+        <f>10-SY3</f>
         <v>3.5</v>
       </c>
-      <c r="SZ11">
-        <f t="shared" si="8"/>
+      <c r="SZ13">
+        <f>10-SZ3</f>
         <v>3.5</v>
       </c>
-      <c r="TA11">
-        <f t="shared" si="8"/>
+      <c r="TA13">
+        <f>10-TA3</f>
         <v>3.5</v>
       </c>
-      <c r="TB11">
-        <f t="shared" si="8"/>
+      <c r="TB13">
+        <f>10-TB3</f>
         <v>3.5</v>
       </c>
-      <c r="TC11">
-        <f t="shared" si="8"/>
+      <c r="TC13">
+        <f>10-TC3</f>
         <v>3.5</v>
       </c>
-      <c r="TD11">
-        <f t="shared" si="8"/>
+      <c r="TD13">
+        <f>10-TD3</f>
         <v>3.5</v>
       </c>
-      <c r="TE11">
-        <f t="shared" si="8"/>
+      <c r="TE13">
+        <f>10-TE3</f>
         <v>3.4228571428571426</v>
       </c>
-      <c r="TF11">
-        <f t="shared" si="8"/>
+      <c r="TF13">
+        <f>10-TF3</f>
         <v>3.1779591836734689</v>
       </c>
-      <c r="TG11">
-        <f t="shared" si="8"/>
+      <c r="TG13">
+        <f>10-TG3</f>
         <v>2.933061224489796</v>
       </c>
-      <c r="TH11">
-        <f t="shared" si="8"/>
+      <c r="TH13">
+        <f>10-TH3</f>
         <v>2.6881632653061232</v>
       </c>
-      <c r="TI11">
-        <f t="shared" si="8"/>
+      <c r="TI13">
+        <f>10-TI3</f>
         <v>2.4432653061224494</v>
       </c>
-      <c r="TJ11">
-        <f t="shared" si="8"/>
+      <c r="TJ13">
+        <f>10-TJ3</f>
         <v>2.1983673469387757</v>
       </c>
-      <c r="TK11">
-        <f t="shared" si="8"/>
+      <c r="TK13">
+        <f>10-TK3</f>
         <v>1.9534693877551028</v>
       </c>
-      <c r="TL11">
-        <f t="shared" si="8"/>
+      <c r="TL13">
+        <f>10-TL3</f>
         <v>1.7085714285714282</v>
       </c>
-      <c r="TM11">
-        <f t="shared" si="8"/>
+      <c r="TM13">
+        <f>10-TM3</f>
         <v>1.4636734693877553</v>
       </c>
-      <c r="TN11">
-        <f t="shared" si="8"/>
+      <c r="TN13">
+        <f>10-TN3</f>
         <v>1.2187755102040825</v>
       </c>
-      <c r="TO11">
-        <f t="shared" si="8"/>
+      <c r="TO13">
+        <f>10-TO3</f>
         <v>0.97387755102040785</v>
       </c>
-      <c r="TP11">
-        <f t="shared" si="8"/>
+      <c r="TP13">
+        <f>10-TP3</f>
         <v>0.728979591836735</v>
       </c>
-      <c r="TQ11">
-        <f t="shared" si="8"/>
+      <c r="TQ13">
+        <f>10-TQ3</f>
         <v>0.5</v>
       </c>
-      <c r="TR11">
-        <f t="shared" si="8"/>
+      <c r="TR13">
+        <f>10-TR3</f>
         <v>0.5</v>
       </c>
-      <c r="TS11">
-        <f t="shared" si="8"/>
+      <c r="TS13">
+        <f>10-TS3</f>
         <v>3.5</v>
       </c>
-      <c r="TT11">
-        <f t="shared" si="8"/>
+      <c r="TT13">
+        <f>10-TT3</f>
         <v>3.5</v>
       </c>
-      <c r="TU11">
-        <f t="shared" si="8"/>
+      <c r="TU13">
+        <f>10-TU3</f>
         <v>3.5</v>
       </c>
-      <c r="TV11">
-        <f t="shared" si="8"/>
+      <c r="TV13">
+        <f>10-TV3</f>
         <v>3.3306979280261721</v>
       </c>
-      <c r="TW11">
-        <f t="shared" si="8"/>
+      <c r="TW13">
+        <f>10-TW3</f>
         <v>3.5</v>
       </c>
-      <c r="TX11">
-        <f t="shared" si="8"/>
+      <c r="TX13">
+        <f>10-TX3</f>
         <v>3.5</v>
       </c>
-      <c r="TY11">
-        <f t="shared" si="8"/>
+      <c r="TY13">
+        <f>10-TY3</f>
         <v>3.5</v>
       </c>
-      <c r="TZ11">
-        <f t="shared" si="8"/>
+      <c r="TZ13">
+        <f>10-TZ3</f>
         <v>3.5</v>
       </c>
-      <c r="UA11">
-        <f t="shared" si="8"/>
+      <c r="UA13">
+        <f>10-UA3</f>
         <v>3.4002619383437436</v>
       </c>
-      <c r="UB11">
-        <f t="shared" si="8"/>
+      <c r="UB13">
+        <f>10-UB3</f>
         <v>3.1584726979649407</v>
       </c>
-      <c r="UC11">
-        <f t="shared" si="8"/>
+      <c r="UC13">
+        <f>10-UC3</f>
         <v>2.9166834575861378</v>
       </c>
-      <c r="UD11">
-        <f t="shared" si="8"/>
+      <c r="UD13">
+        <f>10-UD3</f>
         <v>2.674894217207334</v>
       </c>
-      <c r="UE11">
-        <f t="shared" si="8"/>
+      <c r="UE13">
+        <f>10-UE3</f>
         <v>2.4331049768285311</v>
       </c>
-      <c r="UF11">
-        <f t="shared" si="8"/>
+      <c r="UF13">
+        <f>10-UF3</f>
         <v>2.1913157364497282</v>
       </c>
-      <c r="UG11">
-        <f t="shared" si="8"/>
+      <c r="UG13">
+        <f>10-UG3</f>
         <v>1.9495264960709253</v>
       </c>
-      <c r="UH11">
-        <f t="shared" si="8"/>
+      <c r="UH13">
+        <f>10-UH3</f>
         <v>1.7077372556921215</v>
       </c>
-      <c r="UI11">
-        <f t="shared" si="8"/>
+      <c r="UI13">
+        <f>10-UI3</f>
         <v>1.4659480153133195</v>
       </c>
-      <c r="UJ11">
-        <f t="shared" si="8"/>
+      <c r="UJ13">
+        <f>10-UJ3</f>
         <v>1.2241587749345157</v>
       </c>
-      <c r="UK11">
-        <f t="shared" si="8"/>
+      <c r="UK13">
+        <f>10-UK3</f>
         <v>0.98236953455571197</v>
       </c>
-      <c r="UL11">
-        <f t="shared" si="8"/>
+      <c r="UL13">
+        <f>10-UL3</f>
         <v>3.5</v>
       </c>
-      <c r="UM11">
-        <f t="shared" si="8"/>
+      <c r="UM13">
+        <f>10-UM3</f>
         <v>3.5</v>
       </c>
-      <c r="UN11">
-        <f t="shared" si="8"/>
+      <c r="UN13">
+        <f>10-UN3</f>
         <v>3.5</v>
       </c>
-      <c r="UO11">
-        <f t="shared" si="8"/>
+      <c r="UO13">
+        <f>10-UO3</f>
         <v>3.5</v>
       </c>
-      <c r="UP11">
-        <f t="shared" si="8"/>
+      <c r="UP13">
+        <f>10-UP3</f>
         <v>3.5</v>
       </c>
-      <c r="UQ11">
-        <f t="shared" si="8"/>
+      <c r="UQ13">
+        <f>10-UQ3</f>
         <v>3.5</v>
       </c>
-      <c r="UR11">
-        <f t="shared" si="8"/>
+      <c r="UR13">
+        <f>10-UR3</f>
         <v>3.5</v>
       </c>
-      <c r="US11">
-        <f t="shared" si="8"/>
+      <c r="US13">
+        <f>10-US3</f>
         <v>3.5</v>
       </c>
-      <c r="UT11">
-        <f t="shared" si="8"/>
+      <c r="UT13">
+        <f>10-UT3</f>
         <v>3.5</v>
       </c>
-      <c r="UU11">
-        <f t="shared" si="8"/>
+      <c r="UU13">
+        <f>10-UU3</f>
         <v>3.5</v>
       </c>
-      <c r="UV11">
-        <f t="shared" si="8"/>
+      <c r="UV13">
+        <f>10-UV3</f>
         <v>3.1628721541155871</v>
       </c>
-      <c r="UW11">
-        <f t="shared" si="8"/>
+      <c r="UW13">
+        <f>10-UW3</f>
         <v>2.8126094570928197</v>
       </c>
-      <c r="UX11">
-        <f t="shared" si="8"/>
+      <c r="UX13">
+        <f>10-UX3</f>
         <v>2.4623467600700524</v>
       </c>
-      <c r="UY11">
-        <f t="shared" si="8"/>
+      <c r="UY13">
+        <f>10-UY3</f>
         <v>2.1120840630472859</v>
       </c>
-      <c r="UZ11">
-        <f t="shared" si="8"/>
+      <c r="UZ13">
+        <f>10-UZ3</f>
         <v>3.5</v>
       </c>
-      <c r="VA11">
-        <f t="shared" si="8"/>
+      <c r="VA13">
+        <f>10-VA3</f>
         <v>3.5</v>
       </c>
-      <c r="VB11">
-        <f t="shared" si="8"/>
+      <c r="VB13">
+        <f>10-VB3</f>
         <v>3.5</v>
       </c>
-      <c r="VC11">
-        <f t="shared" si="8"/>
+      <c r="VC13">
+        <f>10-VC3</f>
         <v>3.5</v>
       </c>
-      <c r="VD11">
-        <f t="shared" si="8"/>
+      <c r="VD13">
+        <f>10-VD3</f>
         <v>3.5</v>
       </c>
-      <c r="VE11">
-        <f t="shared" si="8"/>
+      <c r="VE13">
+        <f>10-VE3</f>
         <v>3.5</v>
       </c>
-      <c r="VF11">
-        <f t="shared" si="8"/>
+      <c r="VF13">
+        <f>10-VF3</f>
         <v>3.5</v>
       </c>
-      <c r="VG11">
-        <f t="shared" ref="VG11:XR11" si="9">10-VG3</f>
+      <c r="VG13">
+        <f>10-VG3</f>
         <v>3.5</v>
       </c>
-      <c r="VH11">
-        <f t="shared" si="9"/>
+      <c r="VH13">
+        <f>10-VH3</f>
         <v>3.3843236409608091</v>
       </c>
-      <c r="VI11">
-        <f t="shared" si="9"/>
+      <c r="VI13">
+        <f>10-VI3</f>
         <v>3.1314791403286977</v>
       </c>
-      <c r="VJ11">
-        <f t="shared" si="9"/>
+      <c r="VJ13">
+        <f>10-VJ3</f>
         <v>2.8786346396965872</v>
       </c>
-      <c r="VK11">
-        <f t="shared" si="9"/>
+      <c r="VK13">
+        <f>10-VK3</f>
         <v>2.6257901390644758</v>
       </c>
-      <c r="VL11">
-        <f t="shared" si="9"/>
+      <c r="VL13">
+        <f>10-VL3</f>
         <v>2.3729456384323644</v>
       </c>
-      <c r="VM11">
-        <f t="shared" si="9"/>
+      <c r="VM13">
+        <f>10-VM3</f>
         <v>2.120101137800253</v>
       </c>
-      <c r="VN11">
-        <f t="shared" si="9"/>
+      <c r="VN13">
+        <f>10-VN3</f>
         <v>1.8672566371681416</v>
       </c>
-      <c r="VO11">
-        <f t="shared" si="9"/>
+      <c r="VO13">
+        <f>10-VO3</f>
         <v>1.6144121365360302</v>
       </c>
-      <c r="VP11">
-        <f t="shared" si="9"/>
+      <c r="VP13">
+        <f>10-VP3</f>
         <v>1.3615676359039206</v>
       </c>
-      <c r="VQ11">
-        <f t="shared" si="9"/>
+      <c r="VQ13">
+        <f>10-VQ3</f>
         <v>1.1087231352718092</v>
       </c>
-      <c r="VR11">
-        <f t="shared" si="9"/>
+      <c r="VR13">
+        <f>10-VR3</f>
         <v>0.85587863463969782</v>
       </c>
-      <c r="VS11">
-        <f t="shared" si="9"/>
+      <c r="VS13">
+        <f>10-VS3</f>
         <v>0.60303413400758465</v>
       </c>
-      <c r="VT11">
-        <f t="shared" si="9"/>
+      <c r="VT13">
+        <f>10-VT3</f>
         <v>0.5</v>
       </c>
-      <c r="VU11">
-        <f t="shared" si="9"/>
+      <c r="VU13">
+        <f>10-VU3</f>
         <v>0.5</v>
       </c>
-      <c r="VV11">
-        <f t="shared" si="9"/>
+      <c r="VV13">
+        <f>10-VV3</f>
         <v>0.5</v>
       </c>
-      <c r="VW11">
-        <f t="shared" si="9"/>
+      <c r="VW13">
+        <f>10-VW3</f>
         <v>0.5</v>
       </c>
-      <c r="VX11">
-        <f t="shared" si="9"/>
+      <c r="VX13">
+        <f>10-VX3</f>
         <v>0.5</v>
       </c>
-      <c r="VY11">
-        <f t="shared" si="9"/>
+      <c r="VY13">
+        <f>10-VY3</f>
         <v>0.5</v>
       </c>
-      <c r="VZ11">
-        <f t="shared" si="9"/>
+      <c r="VZ13">
+        <f>10-VZ3</f>
         <v>0.5</v>
       </c>
-      <c r="WA11">
-        <f t="shared" si="9"/>
+      <c r="WA13">
+        <f>10-WA3</f>
         <v>0.5</v>
       </c>
-      <c r="WB11">
-        <f t="shared" si="9"/>
+      <c r="WB13">
+        <f>10-WB3</f>
         <v>0.5</v>
       </c>
-      <c r="WC11">
-        <f t="shared" si="9"/>
+      <c r="WC13">
+        <f>10-WC3</f>
         <v>0.5</v>
       </c>
-      <c r="WD11">
-        <f t="shared" si="9"/>
+      <c r="WD13">
+        <f>10-WD3</f>
         <v>0.5</v>
       </c>
-      <c r="WE11">
-        <f t="shared" si="9"/>
+      <c r="WE13">
+        <f>10-WE3</f>
         <v>0.5</v>
       </c>
-      <c r="WF11">
-        <f t="shared" si="9"/>
+      <c r="WF13">
+        <f>10-WF3</f>
         <v>0.5</v>
       </c>
-      <c r="WG11">
-        <f t="shared" si="9"/>
+      <c r="WG13">
+        <f>10-WG3</f>
         <v>0.5</v>
       </c>
-      <c r="WH11">
-        <f t="shared" si="9"/>
+      <c r="WH13">
+        <f>10-WH3</f>
         <v>0.5</v>
       </c>
-      <c r="WI11">
-        <f t="shared" si="9"/>
+      <c r="WI13">
+        <f>10-WI3</f>
         <v>0.5</v>
       </c>
-      <c r="WJ11">
-        <f t="shared" si="9"/>
+      <c r="WJ13">
+        <f>10-WJ3</f>
         <v>0.5</v>
       </c>
-      <c r="WK11">
-        <f t="shared" si="9"/>
+      <c r="WK13">
+        <f>10-WK3</f>
         <v>0.5</v>
       </c>
-      <c r="WL11">
-        <f t="shared" si="9"/>
+      <c r="WL13">
+        <f>10-WL3</f>
         <v>0.5</v>
       </c>
-      <c r="WM11">
-        <f t="shared" si="9"/>
+      <c r="WM13">
+        <f>10-WM3</f>
         <v>0.5</v>
       </c>
-      <c r="WN11">
-        <f t="shared" si="9"/>
+      <c r="WN13">
+        <f>10-WN3</f>
         <v>0.5</v>
       </c>
-      <c r="WO11">
-        <f t="shared" si="9"/>
+      <c r="WO13">
+        <f>10-WO3</f>
         <v>0.5</v>
       </c>
-      <c r="WP11">
-        <f t="shared" si="9"/>
+      <c r="WP13">
+        <f>10-WP3</f>
         <v>0.5</v>
       </c>
-      <c r="WQ11">
-        <f t="shared" si="9"/>
+      <c r="WQ13">
+        <f>10-WQ3</f>
         <v>0.5</v>
       </c>
-      <c r="WR11">
-        <f t="shared" si="9"/>
+      <c r="WR13">
+        <f>10-WR3</f>
         <v>0.5</v>
       </c>
-      <c r="WS11">
-        <f t="shared" si="9"/>
+      <c r="WS13">
+        <f>10-WS3</f>
         <v>0.5</v>
       </c>
-      <c r="WT11">
-        <f t="shared" si="9"/>
+      <c r="WT13">
+        <f>10-WT3</f>
         <v>0.5</v>
       </c>
-      <c r="WU11">
-        <f t="shared" si="9"/>
+      <c r="WU13">
+        <f>10-WU3</f>
         <v>0.5</v>
       </c>
-      <c r="WV11">
-        <f t="shared" si="9"/>
+      <c r="WV13">
+        <f>10-WV3</f>
         <v>0.5</v>
       </c>
-      <c r="WW11">
-        <f t="shared" si="9"/>
+      <c r="WW13">
+        <f>10-WW3</f>
         <v>0.5</v>
       </c>
-      <c r="WX11">
-        <f t="shared" si="9"/>
+      <c r="WX13">
+        <f>10-WX3</f>
         <v>0.5</v>
       </c>
-      <c r="WY11">
-        <f t="shared" si="9"/>
+      <c r="WY13">
+        <f>10-WY3</f>
         <v>3.5</v>
       </c>
-      <c r="WZ11">
-        <f t="shared" si="9"/>
+      <c r="WZ13">
+        <f>10-WZ3</f>
         <v>3.5</v>
       </c>
-      <c r="XA11">
-        <f t="shared" si="9"/>
+      <c r="XA13">
+        <f>10-XA3</f>
         <v>3.5</v>
       </c>
-      <c r="XB11">
-        <f t="shared" si="9"/>
+      <c r="XB13">
+        <f>10-XB3</f>
         <v>3.5</v>
       </c>
-      <c r="XC11">
-        <f t="shared" si="9"/>
+      <c r="XC13">
+        <f>10-XC3</f>
         <v>3.2224935363401306</v>
       </c>
-      <c r="XD11">
-        <f t="shared" si="9"/>
+      <c r="XD13">
+        <f>10-XD3</f>
         <v>2.8777650100545813</v>
       </c>
-      <c r="XE11">
-        <f t="shared" si="9"/>
+      <c r="XE13">
+        <f>10-XE3</f>
         <v>3.5</v>
       </c>
-      <c r="XF11">
-        <f t="shared" si="9"/>
+      <c r="XF13">
+        <f>10-XF3</f>
         <v>3.5</v>
       </c>
-      <c r="XG11">
-        <f t="shared" si="9"/>
+      <c r="XG13">
+        <f>10-XG3</f>
         <v>3.5</v>
       </c>
-      <c r="XH11">
-        <f t="shared" si="9"/>
+      <c r="XH13">
+        <f>10-XH3</f>
         <v>3.5</v>
       </c>
-      <c r="XI11">
-        <f t="shared" si="9"/>
+      <c r="XI13">
+        <f>10-XI3</f>
         <v>3.5</v>
       </c>
-      <c r="XJ11">
-        <f t="shared" si="9"/>
+      <c r="XJ13">
+        <f>10-XJ3</f>
         <v>3.5</v>
       </c>
-      <c r="XK11">
-        <f t="shared" si="9"/>
+      <c r="XK13">
+        <f>10-XK3</f>
         <v>3.5</v>
       </c>
-      <c r="XL11">
-        <f t="shared" si="9"/>
+      <c r="XL13">
+        <f>10-XL3</f>
         <v>3.5</v>
       </c>
-      <c r="XM11">
-        <f t="shared" si="9"/>
+      <c r="XM13">
+        <f>10-XM3</f>
         <v>3.5</v>
       </c>
-      <c r="XN11">
-        <f t="shared" si="9"/>
+      <c r="XN13">
+        <f>10-XN3</f>
         <v>3.3527430221366696</v>
       </c>
-      <c r="XO11">
-        <f t="shared" si="9"/>
+      <c r="XO13">
+        <f>10-XO3</f>
         <v>3.5</v>
       </c>
-      <c r="XP11">
-        <f t="shared" si="9"/>
+      <c r="XP13">
+        <f>10-XP3</f>
         <v>3.5</v>
       </c>
-      <c r="XQ11">
-        <f t="shared" si="9"/>
+      <c r="XQ13">
+        <f>10-XQ3</f>
         <v>3.5</v>
       </c>
-      <c r="XR11">
-        <f t="shared" si="9"/>
+      <c r="XR13">
+        <f>10-XR3</f>
         <v>3.5</v>
       </c>
-      <c r="XS11">
-        <f t="shared" ref="XS11:AAD11" si="10">10-XS3</f>
+      <c r="XS13">
+        <f>10-XS3</f>
         <v>3.5</v>
       </c>
-      <c r="XT11">
-        <f t="shared" si="10"/>
+      <c r="XT13">
+        <f>10-XT3</f>
         <v>3.5</v>
       </c>
-      <c r="XU11">
-        <f t="shared" si="10"/>
+      <c r="XU13">
+        <f>10-XU3</f>
         <v>3.5</v>
       </c>
-      <c r="XV11">
-        <f t="shared" si="10"/>
+      <c r="XV13">
+        <f>10-XV3</f>
         <v>3.3127053669222342</v>
       </c>
-      <c r="XW11">
-        <f t="shared" si="10"/>
+      <c r="XW13">
+        <f>10-XW3</f>
         <v>2.9841182913472064</v>
       </c>
-      <c r="XX11">
-        <f t="shared" si="10"/>
+      <c r="XX13">
+        <f>10-XX3</f>
         <v>3.5</v>
       </c>
-      <c r="XY11">
-        <f t="shared" si="10"/>
+      <c r="XY13">
+        <f>10-XY3</f>
         <v>3.5</v>
       </c>
-      <c r="XZ11">
-        <f t="shared" si="10"/>
+      <c r="XZ13">
+        <f>10-XZ3</f>
         <v>3.5</v>
       </c>
-      <c r="YA11">
-        <f t="shared" si="10"/>
+      <c r="YA13">
+        <f>10-YA3</f>
         <v>3.5</v>
       </c>
-      <c r="YB11">
-        <f t="shared" si="10"/>
+      <c r="YB13">
+        <f>10-YB3</f>
         <v>3.5</v>
       </c>
-      <c r="YC11">
-        <f t="shared" si="10"/>
+      <c r="YC13">
+        <f>10-YC3</f>
         <v>3.3671764942644389</v>
       </c>
-      <c r="YD11">
-        <f t="shared" si="10"/>
+      <c r="YD13">
+        <f>10-YD3</f>
         <v>3.1256792111088751</v>
       </c>
-      <c r="YE11">
-        <f t="shared" si="10"/>
+      <c r="YE13">
+        <f>10-YE3</f>
         <v>3.5</v>
       </c>
-      <c r="YF11">
-        <f t="shared" si="10"/>
+      <c r="YF13">
+        <f>10-YF3</f>
         <v>3.5</v>
       </c>
-      <c r="YG11">
-        <f t="shared" si="10"/>
+      <c r="YG13">
+        <f>10-YG3</f>
         <v>3.5</v>
       </c>
-      <c r="YH11">
-        <f t="shared" si="10"/>
+      <c r="YH13">
+        <f>10-YH3</f>
         <v>3.5</v>
       </c>
-      <c r="YI11">
-        <f t="shared" si="10"/>
+      <c r="YI13">
+        <f>10-YI3</f>
         <v>3.5</v>
       </c>
-      <c r="YJ11">
-        <f t="shared" si="10"/>
+      <c r="YJ13">
+        <f>10-YJ3</f>
         <v>3.5</v>
       </c>
-      <c r="YK11">
-        <f t="shared" si="10"/>
+      <c r="YK13">
+        <f>10-YK3</f>
         <v>3.5</v>
       </c>
-      <c r="YL11">
-        <f t="shared" si="10"/>
+      <c r="YL13">
+        <f>10-YL3</f>
         <v>3.5</v>
       </c>
-      <c r="YM11">
-        <f t="shared" si="10"/>
+      <c r="YM13">
+        <f>10-YM3</f>
         <v>3.5</v>
       </c>
-      <c r="YN11">
-        <f t="shared" si="10"/>
+      <c r="YN13">
+        <f>10-YN3</f>
         <v>3.5</v>
       </c>
-      <c r="YO11">
-        <f t="shared" si="10"/>
+      <c r="YO13">
+        <f>10-YO3</f>
         <v>3.5</v>
       </c>
-      <c r="YP11">
-        <f t="shared" si="10"/>
+      <c r="YP13">
+        <f>10-YP3</f>
         <v>3.5</v>
       </c>
-      <c r="YQ11">
-        <f t="shared" si="10"/>
+      <c r="YQ13">
+        <f>10-YQ3</f>
         <v>3.5</v>
       </c>
-      <c r="YR11">
-        <f t="shared" si="10"/>
+      <c r="YR13">
+        <f>10-YR3</f>
         <v>3.3594386600271617</v>
       </c>
-      <c r="YS11">
-        <f t="shared" si="10"/>
+      <c r="YS13">
+        <f>10-YS3</f>
         <v>3.0878225441376186</v>
       </c>
-      <c r="YT11">
-        <f t="shared" si="10"/>
+      <c r="YT13">
+        <f>10-YT3</f>
         <v>2.8162064282480763</v>
       </c>
-      <c r="YU11">
-        <f t="shared" si="10"/>
+      <c r="YU13">
+        <f>10-YU3</f>
         <v>2.5445903123585332</v>
       </c>
-      <c r="YV11">
-        <f t="shared" si="10"/>
+      <c r="YV13">
+        <f>10-YV3</f>
         <v>2.2729741964689909</v>
       </c>
-      <c r="YW11">
-        <f t="shared" si="10"/>
+      <c r="YW13">
+        <f>10-YW3</f>
         <v>2.0013580805794469</v>
       </c>
-      <c r="YX11">
-        <f t="shared" si="10"/>
+      <c r="YX13">
+        <f>10-YX3</f>
         <v>1.7297419646899055</v>
       </c>
-      <c r="YY11">
-        <f t="shared" si="10"/>
+      <c r="YY13">
+        <f>10-YY3</f>
         <v>1.4581258488003623</v>
       </c>
-      <c r="YZ11">
-        <f t="shared" si="10"/>
+      <c r="YZ13">
+        <f>10-YZ3</f>
         <v>1.1865097329108192</v>
       </c>
-      <c r="ZA11">
-        <f t="shared" si="10"/>
+      <c r="ZA13">
+        <f>10-ZA3</f>
         <v>0.91489361702127781</v>
       </c>
-      <c r="ZB11">
-        <f t="shared" si="10"/>
+      <c r="ZB13">
+        <f>10-ZB3</f>
         <v>0.64327750113173465</v>
       </c>
-      <c r="ZC11">
-        <f t="shared" si="10"/>
+      <c r="ZC13">
+        <f>10-ZC3</f>
         <v>0.5</v>
       </c>
-      <c r="ZD11">
-        <f t="shared" si="10"/>
+      <c r="ZD13">
+        <f>10-ZD3</f>
         <v>0.5</v>
       </c>
-      <c r="ZE11">
-        <f t="shared" si="10"/>
+      <c r="ZE13">
+        <f>10-ZE3</f>
         <v>0.5</v>
       </c>
-      <c r="ZF11">
-        <f t="shared" si="10"/>
+      <c r="ZF13">
+        <f>10-ZF3</f>
         <v>0.5</v>
       </c>
-      <c r="ZG11">
-        <f t="shared" si="10"/>
+      <c r="ZG13">
+        <f>10-ZG3</f>
         <v>0.5</v>
       </c>
-      <c r="ZH11">
-        <f t="shared" si="10"/>
+      <c r="ZH13">
+        <f>10-ZH3</f>
         <v>0.5</v>
       </c>
-      <c r="ZI11">
-        <f t="shared" si="10"/>
+      <c r="ZI13">
+        <f>10-ZI3</f>
         <v>0.5</v>
       </c>
-      <c r="ZJ11">
-        <f t="shared" si="10"/>
+      <c r="ZJ13">
+        <f>10-ZJ3</f>
         <v>3.5</v>
       </c>
-      <c r="ZK11">
-        <f t="shared" si="10"/>
+      <c r="ZK13">
+        <f>10-ZK3</f>
         <v>3.5</v>
       </c>
-      <c r="ZL11">
-        <f t="shared" si="10"/>
+      <c r="ZL13">
+        <f>10-ZL3</f>
         <v>3.5</v>
       </c>
-      <c r="ZM11">
-        <f t="shared" si="10"/>
+      <c r="ZM13">
+        <f>10-ZM3</f>
         <v>3.5</v>
       </c>
-      <c r="ZN11">
-        <f t="shared" si="10"/>
+      <c r="ZN13">
+        <f>10-ZN3</f>
         <v>3.5</v>
       </c>
-      <c r="ZO11">
-        <f t="shared" si="10"/>
+      <c r="ZO13">
+        <f>10-ZO3</f>
         <v>3.5</v>
       </c>
-      <c r="ZP11">
-        <f t="shared" si="10"/>
+      <c r="ZP13">
+        <f>10-ZP3</f>
         <v>3.5</v>
       </c>
-      <c r="ZQ11">
-        <f t="shared" si="10"/>
+      <c r="ZQ13">
+        <f>10-ZQ3</f>
         <v>3.5</v>
       </c>
-      <c r="ZR11">
-        <f t="shared" si="10"/>
+      <c r="ZR13">
+        <f>10-ZR3</f>
         <v>3.3133654425045158</v>
       </c>
-      <c r="ZS11">
-        <f t="shared" si="10"/>
+      <c r="ZS13">
+        <f>10-ZS3</f>
         <v>3.0725466586393733</v>
       </c>
-      <c r="ZT11">
-        <f t="shared" si="10"/>
+      <c r="ZT13">
+        <f>10-ZT3</f>
         <v>2.8317278747742316</v>
       </c>
-      <c r="ZU11">
-        <f t="shared" si="10"/>
+      <c r="ZU13">
+        <f>10-ZU3</f>
         <v>2.5909090909090899</v>
       </c>
-      <c r="ZV11">
-        <f t="shared" si="10"/>
+      <c r="ZV13">
+        <f>10-ZV3</f>
         <v>2.3500903070439492</v>
       </c>
-      <c r="ZW11">
-        <f t="shared" si="10"/>
+      <c r="ZW13">
+        <f>10-ZW3</f>
         <v>2.1092715231788084</v>
       </c>
-      <c r="ZX11">
-        <f t="shared" si="10"/>
+      <c r="ZX13">
+        <f>10-ZX3</f>
         <v>1.8684527393136658</v>
       </c>
-      <c r="ZY11">
-        <f t="shared" si="10"/>
+      <c r="ZY13">
+        <f>10-ZY3</f>
         <v>1.6276339554485251</v>
       </c>
-      <c r="ZZ11">
-        <f t="shared" si="10"/>
+      <c r="ZZ13">
+        <f>10-ZZ3</f>
         <v>1.3868151715833843</v>
       </c>
-      <c r="AAA11">
-        <f t="shared" si="10"/>
+      <c r="AAA13">
+        <f>10-AAA3</f>
         <v>1.1459963877182417</v>
       </c>
-      <c r="AAB11">
-        <f t="shared" si="10"/>
+      <c r="AAB13">
+        <f>10-AAB3</f>
         <v>0.90517760385310098</v>
       </c>
-      <c r="AAC11">
-        <f t="shared" si="10"/>
+      <c r="AAC13">
+        <f>10-AAC3</f>
         <v>0.66435881998795843</v>
       </c>
-      <c r="AAD11">
-        <f t="shared" si="10"/>
+      <c r="AAD13">
+        <f>10-AAD3</f>
         <v>0.5</v>
       </c>
-      <c r="AAE11">
-        <f t="shared" ref="AAE11:ABW11" si="11">10-AAE3</f>
+      <c r="AAE13">
+        <f>10-AAE3</f>
         <v>0.5</v>
       </c>
-      <c r="AAF11">
-        <f t="shared" si="11"/>
+      <c r="AAF13">
+        <f>10-AAF3</f>
         <v>0.5</v>
       </c>
-      <c r="AAG11">
-        <f t="shared" si="11"/>
+      <c r="AAG13">
+        <f>10-AAG3</f>
         <v>0.5</v>
       </c>
-      <c r="AAH11">
-        <f t="shared" si="11"/>
+      <c r="AAH13">
+        <f>10-AAH3</f>
         <v>0.5</v>
       </c>
-      <c r="AAI11">
-        <f t="shared" si="11"/>
+      <c r="AAI13">
+        <f>10-AAI3</f>
         <v>0.5</v>
       </c>
-      <c r="AAJ11">
-        <f t="shared" si="11"/>
+      <c r="AAJ13">
+        <f>10-AAJ3</f>
         <v>0.5</v>
       </c>
-      <c r="AAK11">
-        <f t="shared" si="11"/>
+      <c r="AAK13">
+        <f>10-AAK3</f>
         <v>0.5</v>
       </c>
-      <c r="AAL11">
-        <f t="shared" si="11"/>
+      <c r="AAL13">
+        <f>10-AAL3</f>
         <v>0.5</v>
       </c>
-      <c r="AAM11">
-        <f t="shared" si="11"/>
+      <c r="AAM13">
+        <f>10-AAM3</f>
         <v>0.5</v>
       </c>
-      <c r="AAN11">
-        <f t="shared" si="11"/>
+      <c r="AAN13">
+        <f>10-AAN3</f>
         <v>0.5</v>
       </c>
-      <c r="AAO11">
-        <f t="shared" si="11"/>
+      <c r="AAO13">
+        <f>10-AAO3</f>
         <v>0.5</v>
       </c>
-      <c r="AAP11">
-        <f t="shared" si="11"/>
+      <c r="AAP13">
+        <f>10-AAP3</f>
         <v>0.5</v>
       </c>
-      <c r="AAQ11">
-        <f t="shared" si="11"/>
+      <c r="AAQ13">
+        <f>10-AAQ3</f>
         <v>0.5</v>
       </c>
-      <c r="AAR11">
-        <f t="shared" si="11"/>
+      <c r="AAR13">
+        <f>10-AAR3</f>
         <v>0.5</v>
       </c>
-      <c r="AAS11">
-        <f t="shared" si="11"/>
+      <c r="AAS13">
+        <f>10-AAS3</f>
         <v>0.5</v>
       </c>
-      <c r="AAT11">
-        <f t="shared" si="11"/>
+      <c r="AAT13">
+        <f>10-AAT3</f>
         <v>0.5</v>
       </c>
-      <c r="AAU11">
-        <f t="shared" si="11"/>
+      <c r="AAU13">
+        <f>10-AAU3</f>
         <v>0.5</v>
       </c>
-      <c r="AAV11">
-        <f t="shared" si="11"/>
+      <c r="AAV13">
+        <f>10-AAV3</f>
         <v>0.5</v>
       </c>
-      <c r="AAW11">
-        <f t="shared" si="11"/>
+      <c r="AAW13">
+        <f>10-AAW3</f>
         <v>0.5</v>
       </c>
-      <c r="AAX11">
-        <f t="shared" si="11"/>
+      <c r="AAX13">
+        <f>10-AAX3</f>
         <v>0.5</v>
       </c>
-      <c r="AAY11">
-        <f t="shared" si="11"/>
+      <c r="AAY13">
+        <f>10-AAY3</f>
         <v>0.5</v>
       </c>
-      <c r="AAZ11">
-        <f t="shared" si="11"/>
+      <c r="AAZ13">
+        <f>10-AAZ3</f>
         <v>0.5</v>
       </c>
-      <c r="ABA11">
-        <f t="shared" si="11"/>
+      <c r="ABA13">
+        <f>10-ABA3</f>
         <v>0.5</v>
       </c>
-      <c r="ABB11">
-        <f t="shared" si="11"/>
+      <c r="ABB13">
+        <f>10-ABB3</f>
         <v>0.5</v>
       </c>
-      <c r="ABC11">
-        <f t="shared" si="11"/>
+      <c r="ABC13">
+        <f>10-ABC3</f>
         <v>0.5</v>
       </c>
-      <c r="ABD11">
-        <f t="shared" si="11"/>
+      <c r="ABD13">
+        <f>10-ABD3</f>
         <v>0.5</v>
       </c>
-      <c r="ABE11">
-        <f t="shared" si="11"/>
+      <c r="ABE13">
+        <f>10-ABE3</f>
         <v>0.5</v>
       </c>
-      <c r="ABF11">
-        <f t="shared" si="11"/>
+      <c r="ABF13">
+        <f>10-ABF3</f>
         <v>0.5</v>
       </c>
-      <c r="ABG11">
-        <f t="shared" si="11"/>
+      <c r="ABG13">
+        <f>10-ABG3</f>
         <v>0.5</v>
       </c>
-      <c r="ABH11">
-        <f t="shared" si="11"/>
+      <c r="ABH13">
+        <f>10-ABH3</f>
         <v>0.5</v>
       </c>
-      <c r="ABI11">
-        <f t="shared" si="11"/>
+      <c r="ABI13">
+        <f>10-ABI3</f>
         <v>3.5</v>
       </c>
-      <c r="ABJ11">
-        <f t="shared" si="11"/>
+      <c r="ABJ13">
+        <f>10-ABJ3</f>
         <v>3.5</v>
       </c>
-      <c r="ABK11">
-        <f t="shared" si="11"/>
+      <c r="ABK13">
+        <f>10-ABK3</f>
         <v>3.5</v>
       </c>
-      <c r="ABL11">
-        <f t="shared" si="11"/>
+      <c r="ABL13">
+        <f>10-ABL3</f>
         <v>3.5</v>
       </c>
-      <c r="ABM11">
-        <f t="shared" si="11"/>
+      <c r="ABM13">
+        <f>10-ABM3</f>
         <v>3.3656853725850961</v>
       </c>
-      <c r="ABN11">
-        <f t="shared" si="11"/>
+      <c r="ABN13">
+        <f>10-ABN3</f>
         <v>2.9977000919963199</v>
       </c>
-      <c r="ABO11">
-        <f t="shared" si="11"/>
+      <c r="ABO13">
+        <f>10-ABO3</f>
         <v>2.6297148114075437</v>
       </c>
-      <c r="ABP11">
-        <f t="shared" si="11"/>
+      <c r="ABP13">
+        <f>10-ABP3</f>
         <v>2.2617295308187666</v>
       </c>
-      <c r="ABQ11">
-        <f t="shared" si="11"/>
+      <c r="ABQ13">
+        <f>10-ABQ3</f>
         <v>1.8937442502299913</v>
       </c>
-      <c r="ABR11">
-        <f t="shared" si="11"/>
+      <c r="ABR13">
+        <f>10-ABR3</f>
         <v>1.525758969641215</v>
       </c>
-      <c r="ABS11">
-        <f t="shared" si="11"/>
+      <c r="ABS13">
+        <f>10-ABS3</f>
         <v>1.1577736890524388</v>
       </c>
-      <c r="ABT11">
-        <f t="shared" si="11"/>
+      <c r="ABT13">
+        <f>10-ABT3</f>
         <v>0.78978840846366261</v>
       </c>
-      <c r="ABU11">
-        <f t="shared" si="11"/>
+      <c r="ABU13">
+        <f>10-ABU3</f>
         <v>0.5</v>
       </c>
-      <c r="ABV11">
-        <f t="shared" si="11"/>
+      <c r="ABV13">
+        <f>10-ABV3</f>
         <v>0.5</v>
       </c>
-      <c r="ABW11">
-        <f t="shared" si="11"/>
+      <c r="ABW13">
+        <f>10-ABW3</f>
         <v>0.5</v>
       </c>
     </row>
@@ -39344,6 +39387,41 @@
       <c r="C16">
         <f>AVERAGE(NN5:ABW5)</f>
         <v>1.2756057795505367</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tests/adaptive400/rain2_1_lin150k.xlsx
+++ b/tests/adaptive400/rain2_1_lin150k.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robrecht\IdeaProjects\thesis\tests\adaptive400\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB0EC05-BE09-4F42-AFDF-174B9330BC20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EE0545-3268-404B-8F7A-25FA5C70AC14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>diff_sq</t>
   </si>
@@ -22809,10 +22809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ABW25"/>
+  <dimension ref="A1:ABW27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="A20:C20"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48395,12 +48395,12 @@
         <v>0.67555668190210705</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>AVERAGE(5:5)</f>
         <v>0.67555668190210705</v>
@@ -48410,12 +48410,12 @@
         <v>1.2756057795505367</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:751" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:751" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>AVERAGE(B9:NM9)</f>
         <v>0.63806970509383376</v>
@@ -48432,29 +48432,2284 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:751" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:751" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:751" x14ac:dyDescent="0.3">
       <c r="F23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:751" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:751" x14ac:dyDescent="0.3">
       <c r="F25" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:751" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>2</v>
+      </c>
+      <c r="AH27">
+        <v>2</v>
+      </c>
+      <c r="AI27">
+        <v>2</v>
+      </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>2</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <v>2</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>2</v>
+      </c>
+      <c r="AQ27">
+        <v>2</v>
+      </c>
+      <c r="AR27">
+        <v>2</v>
+      </c>
+      <c r="AS27">
+        <v>2</v>
+      </c>
+      <c r="AT27">
+        <v>2</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>2</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>2</v>
+      </c>
+      <c r="AZ27">
+        <v>2</v>
+      </c>
+      <c r="BA27">
+        <v>2</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>2</v>
+      </c>
+      <c r="BD27">
+        <v>2</v>
+      </c>
+      <c r="BE27">
+        <v>2</v>
+      </c>
+      <c r="BF27">
+        <v>2</v>
+      </c>
+      <c r="BG27">
+        <v>2</v>
+      </c>
+      <c r="BH27">
+        <v>2</v>
+      </c>
+      <c r="BI27">
+        <v>2</v>
+      </c>
+      <c r="BJ27">
+        <v>2</v>
+      </c>
+      <c r="BK27">
+        <v>2</v>
+      </c>
+      <c r="BL27">
+        <v>2</v>
+      </c>
+      <c r="BM27">
+        <v>0</v>
+      </c>
+      <c r="BN27">
+        <v>0</v>
+      </c>
+      <c r="BO27">
+        <v>0</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>0</v>
+      </c>
+      <c r="BR27">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>0</v>
+      </c>
+      <c r="BT27">
+        <v>0</v>
+      </c>
+      <c r="BU27">
+        <v>0</v>
+      </c>
+      <c r="BV27">
+        <v>0</v>
+      </c>
+      <c r="BW27">
+        <v>2</v>
+      </c>
+      <c r="BX27">
+        <v>2</v>
+      </c>
+      <c r="BY27">
+        <v>2</v>
+      </c>
+      <c r="BZ27">
+        <v>2</v>
+      </c>
+      <c r="CA27">
+        <v>2</v>
+      </c>
+      <c r="CB27">
+        <v>2</v>
+      </c>
+      <c r="CC27">
+        <v>2</v>
+      </c>
+      <c r="CD27">
+        <v>2</v>
+      </c>
+      <c r="CE27">
+        <v>2</v>
+      </c>
+      <c r="CF27">
+        <v>2</v>
+      </c>
+      <c r="CG27">
+        <v>2</v>
+      </c>
+      <c r="CH27">
+        <v>2</v>
+      </c>
+      <c r="CI27">
+        <v>2</v>
+      </c>
+      <c r="CJ27">
+        <v>2</v>
+      </c>
+      <c r="CK27">
+        <v>2</v>
+      </c>
+      <c r="CL27">
+        <v>2</v>
+      </c>
+      <c r="CM27">
+        <v>2</v>
+      </c>
+      <c r="CN27">
+        <v>2</v>
+      </c>
+      <c r="CO27">
+        <v>2</v>
+      </c>
+      <c r="CP27">
+        <v>2</v>
+      </c>
+      <c r="CQ27">
+        <v>2</v>
+      </c>
+      <c r="CR27">
+        <v>0</v>
+      </c>
+      <c r="CS27">
+        <v>0</v>
+      </c>
+      <c r="CT27">
+        <v>0</v>
+      </c>
+      <c r="CU27">
+        <v>0</v>
+      </c>
+      <c r="CV27">
+        <v>0</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>0</v>
+      </c>
+      <c r="CY27">
+        <v>0</v>
+      </c>
+      <c r="CZ27">
+        <v>0</v>
+      </c>
+      <c r="DA27">
+        <v>0</v>
+      </c>
+      <c r="DB27">
+        <v>0</v>
+      </c>
+      <c r="DC27">
+        <v>0</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27">
+        <v>0</v>
+      </c>
+      <c r="DF27">
+        <v>0</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
+        <v>2</v>
+      </c>
+      <c r="DJ27">
+        <v>2</v>
+      </c>
+      <c r="DK27">
+        <v>2</v>
+      </c>
+      <c r="DL27">
+        <v>2</v>
+      </c>
+      <c r="DM27">
+        <v>2</v>
+      </c>
+      <c r="DN27">
+        <v>0</v>
+      </c>
+      <c r="DO27">
+        <v>0</v>
+      </c>
+      <c r="DP27">
+        <v>0</v>
+      </c>
+      <c r="DQ27">
+        <v>0</v>
+      </c>
+      <c r="DR27">
+        <v>0</v>
+      </c>
+      <c r="DS27">
+        <v>0</v>
+      </c>
+      <c r="DT27">
+        <v>0</v>
+      </c>
+      <c r="DU27">
+        <v>0</v>
+      </c>
+      <c r="DV27">
+        <v>2</v>
+      </c>
+      <c r="DW27">
+        <v>2</v>
+      </c>
+      <c r="DX27">
+        <v>2</v>
+      </c>
+      <c r="DY27">
+        <v>2</v>
+      </c>
+      <c r="DZ27">
+        <v>2</v>
+      </c>
+      <c r="EA27">
+        <v>2</v>
+      </c>
+      <c r="EB27">
+        <v>2</v>
+      </c>
+      <c r="EC27">
+        <v>2</v>
+      </c>
+      <c r="ED27">
+        <v>2</v>
+      </c>
+      <c r="EE27">
+        <v>2</v>
+      </c>
+      <c r="EF27">
+        <v>2</v>
+      </c>
+      <c r="EG27">
+        <v>2</v>
+      </c>
+      <c r="EH27">
+        <v>2</v>
+      </c>
+      <c r="EI27">
+        <v>2</v>
+      </c>
+      <c r="EJ27">
+        <v>2</v>
+      </c>
+      <c r="EK27">
+        <v>2</v>
+      </c>
+      <c r="EL27">
+        <v>2</v>
+      </c>
+      <c r="EM27">
+        <v>2</v>
+      </c>
+      <c r="EN27">
+        <v>2</v>
+      </c>
+      <c r="EO27">
+        <v>2</v>
+      </c>
+      <c r="EP27">
+        <v>2</v>
+      </c>
+      <c r="EQ27">
+        <v>2</v>
+      </c>
+      <c r="ER27">
+        <v>2</v>
+      </c>
+      <c r="ES27">
+        <v>2</v>
+      </c>
+      <c r="ET27">
+        <v>2</v>
+      </c>
+      <c r="EU27">
+        <v>2</v>
+      </c>
+      <c r="EV27">
+        <v>2</v>
+      </c>
+      <c r="EW27">
+        <v>2</v>
+      </c>
+      <c r="EX27">
+        <v>2</v>
+      </c>
+      <c r="EY27">
+        <v>2</v>
+      </c>
+      <c r="EZ27">
+        <v>2</v>
+      </c>
+      <c r="FA27">
+        <v>2</v>
+      </c>
+      <c r="FB27">
+        <v>2</v>
+      </c>
+      <c r="FC27">
+        <v>2</v>
+      </c>
+      <c r="FD27">
+        <v>2</v>
+      </c>
+      <c r="FE27">
+        <v>2</v>
+      </c>
+      <c r="FF27">
+        <v>2</v>
+      </c>
+      <c r="FG27">
+        <v>2</v>
+      </c>
+      <c r="FH27">
+        <v>2</v>
+      </c>
+      <c r="FI27">
+        <v>2</v>
+      </c>
+      <c r="FJ27">
+        <v>2</v>
+      </c>
+      <c r="FK27">
+        <v>2</v>
+      </c>
+      <c r="FL27">
+        <v>2</v>
+      </c>
+      <c r="FM27">
+        <v>2</v>
+      </c>
+      <c r="FN27">
+        <v>0</v>
+      </c>
+      <c r="FO27">
+        <v>0</v>
+      </c>
+      <c r="FP27">
+        <v>0</v>
+      </c>
+      <c r="FQ27">
+        <v>0</v>
+      </c>
+      <c r="FR27">
+        <v>0</v>
+      </c>
+      <c r="FS27">
+        <v>0</v>
+      </c>
+      <c r="FT27">
+        <v>0</v>
+      </c>
+      <c r="FU27">
+        <v>0</v>
+      </c>
+      <c r="FV27">
+        <v>0</v>
+      </c>
+      <c r="FW27">
+        <v>-1</v>
+      </c>
+      <c r="FX27">
+        <v>2</v>
+      </c>
+      <c r="FY27">
+        <v>2</v>
+      </c>
+      <c r="FZ27">
+        <v>2</v>
+      </c>
+      <c r="GA27">
+        <v>2</v>
+      </c>
+      <c r="GB27">
+        <v>2</v>
+      </c>
+      <c r="GC27">
+        <v>2</v>
+      </c>
+      <c r="GD27">
+        <v>2</v>
+      </c>
+      <c r="GE27">
+        <v>2</v>
+      </c>
+      <c r="GF27">
+        <v>2</v>
+      </c>
+      <c r="GG27">
+        <v>2</v>
+      </c>
+      <c r="GH27">
+        <v>2</v>
+      </c>
+      <c r="GI27">
+        <v>2</v>
+      </c>
+      <c r="GJ27">
+        <v>2</v>
+      </c>
+      <c r="GK27">
+        <v>2</v>
+      </c>
+      <c r="GL27">
+        <v>2</v>
+      </c>
+      <c r="GM27">
+        <v>2</v>
+      </c>
+      <c r="GN27">
+        <v>2</v>
+      </c>
+      <c r="GO27">
+        <v>2</v>
+      </c>
+      <c r="GP27">
+        <v>2</v>
+      </c>
+      <c r="GQ27">
+        <v>2</v>
+      </c>
+      <c r="GR27">
+        <v>2</v>
+      </c>
+      <c r="GS27">
+        <v>2</v>
+      </c>
+      <c r="GT27">
+        <v>2</v>
+      </c>
+      <c r="GU27">
+        <v>2</v>
+      </c>
+      <c r="GV27">
+        <v>2</v>
+      </c>
+      <c r="GW27">
+        <v>2</v>
+      </c>
+      <c r="GX27">
+        <v>2</v>
+      </c>
+      <c r="GY27">
+        <v>2</v>
+      </c>
+      <c r="GZ27">
+        <v>2</v>
+      </c>
+      <c r="HA27">
+        <v>2</v>
+      </c>
+      <c r="HB27">
+        <v>2</v>
+      </c>
+      <c r="HC27">
+        <v>2</v>
+      </c>
+      <c r="HD27">
+        <v>2</v>
+      </c>
+      <c r="HE27">
+        <v>2</v>
+      </c>
+      <c r="HF27">
+        <v>2</v>
+      </c>
+      <c r="HG27">
+        <v>2</v>
+      </c>
+      <c r="HH27">
+        <v>2</v>
+      </c>
+      <c r="HI27">
+        <v>2</v>
+      </c>
+      <c r="HJ27">
+        <v>2</v>
+      </c>
+      <c r="HK27">
+        <v>2</v>
+      </c>
+      <c r="HL27">
+        <v>2</v>
+      </c>
+      <c r="HM27">
+        <v>2</v>
+      </c>
+      <c r="HN27">
+        <v>2</v>
+      </c>
+      <c r="HO27">
+        <v>2</v>
+      </c>
+      <c r="HP27">
+        <v>2</v>
+      </c>
+      <c r="HQ27">
+        <v>2</v>
+      </c>
+      <c r="HR27">
+        <v>2</v>
+      </c>
+      <c r="HS27">
+        <v>2</v>
+      </c>
+      <c r="HT27">
+        <v>2</v>
+      </c>
+      <c r="HU27">
+        <v>2</v>
+      </c>
+      <c r="HV27">
+        <v>2</v>
+      </c>
+      <c r="HW27">
+        <v>2</v>
+      </c>
+      <c r="HX27">
+        <v>2</v>
+      </c>
+      <c r="HY27">
+        <v>2</v>
+      </c>
+      <c r="HZ27">
+        <v>2</v>
+      </c>
+      <c r="IA27">
+        <v>2</v>
+      </c>
+      <c r="IB27">
+        <v>2</v>
+      </c>
+      <c r="IC27">
+        <v>2</v>
+      </c>
+      <c r="ID27">
+        <v>2</v>
+      </c>
+      <c r="IE27">
+        <v>2</v>
+      </c>
+      <c r="IF27">
+        <v>2</v>
+      </c>
+      <c r="IG27">
+        <v>2</v>
+      </c>
+      <c r="IH27">
+        <v>2</v>
+      </c>
+      <c r="II27">
+        <v>2</v>
+      </c>
+      <c r="IJ27">
+        <v>2</v>
+      </c>
+      <c r="IK27">
+        <v>2</v>
+      </c>
+      <c r="IL27">
+        <v>2</v>
+      </c>
+      <c r="IM27">
+        <v>2</v>
+      </c>
+      <c r="IN27">
+        <v>2</v>
+      </c>
+      <c r="IO27">
+        <v>2</v>
+      </c>
+      <c r="IP27">
+        <v>2</v>
+      </c>
+      <c r="IQ27">
+        <v>2</v>
+      </c>
+      <c r="IR27">
+        <v>2</v>
+      </c>
+      <c r="IS27">
+        <v>2</v>
+      </c>
+      <c r="IT27">
+        <v>2</v>
+      </c>
+      <c r="IU27">
+        <v>2</v>
+      </c>
+      <c r="IV27">
+        <v>2</v>
+      </c>
+      <c r="IW27">
+        <v>0</v>
+      </c>
+      <c r="IX27">
+        <v>0</v>
+      </c>
+      <c r="IY27">
+        <v>0</v>
+      </c>
+      <c r="IZ27">
+        <v>0</v>
+      </c>
+      <c r="JA27">
+        <v>0</v>
+      </c>
+      <c r="JB27">
+        <v>0</v>
+      </c>
+      <c r="JC27">
+        <v>0</v>
+      </c>
+      <c r="JD27">
+        <v>0</v>
+      </c>
+      <c r="JE27">
+        <v>0</v>
+      </c>
+      <c r="JF27">
+        <v>0</v>
+      </c>
+      <c r="JG27">
+        <v>-1</v>
+      </c>
+      <c r="JH27">
+        <v>2</v>
+      </c>
+      <c r="JI27">
+        <v>2</v>
+      </c>
+      <c r="JJ27">
+        <v>2</v>
+      </c>
+      <c r="JK27">
+        <v>2</v>
+      </c>
+      <c r="JL27">
+        <v>2</v>
+      </c>
+      <c r="JM27">
+        <v>2</v>
+      </c>
+      <c r="JN27">
+        <v>2</v>
+      </c>
+      <c r="JO27">
+        <v>2</v>
+      </c>
+      <c r="JP27">
+        <v>2</v>
+      </c>
+      <c r="JQ27">
+        <v>2</v>
+      </c>
+      <c r="JR27">
+        <v>2</v>
+      </c>
+      <c r="JS27">
+        <v>2</v>
+      </c>
+      <c r="JT27">
+        <v>2</v>
+      </c>
+      <c r="JU27">
+        <v>2</v>
+      </c>
+      <c r="JV27">
+        <v>2</v>
+      </c>
+      <c r="JW27">
+        <v>2</v>
+      </c>
+      <c r="JX27">
+        <v>2</v>
+      </c>
+      <c r="JY27">
+        <v>0</v>
+      </c>
+      <c r="JZ27">
+        <v>0</v>
+      </c>
+      <c r="KA27">
+        <v>0</v>
+      </c>
+      <c r="KB27">
+        <v>0</v>
+      </c>
+      <c r="KC27">
+        <v>0</v>
+      </c>
+      <c r="KD27">
+        <v>0</v>
+      </c>
+      <c r="KE27">
+        <v>0</v>
+      </c>
+      <c r="KF27">
+        <v>0</v>
+      </c>
+      <c r="KG27">
+        <v>0</v>
+      </c>
+      <c r="KH27">
+        <v>0</v>
+      </c>
+      <c r="KI27">
+        <v>0</v>
+      </c>
+      <c r="KJ27">
+        <v>0</v>
+      </c>
+      <c r="KK27">
+        <v>0</v>
+      </c>
+      <c r="KL27">
+        <v>0</v>
+      </c>
+      <c r="KM27">
+        <v>0</v>
+      </c>
+      <c r="KN27">
+        <v>0</v>
+      </c>
+      <c r="KO27">
+        <v>0</v>
+      </c>
+      <c r="KP27">
+        <v>0</v>
+      </c>
+      <c r="KQ27">
+        <v>0</v>
+      </c>
+      <c r="KR27">
+        <v>0</v>
+      </c>
+      <c r="KS27">
+        <v>0</v>
+      </c>
+      <c r="KT27">
+        <v>0</v>
+      </c>
+      <c r="KU27">
+        <v>0</v>
+      </c>
+      <c r="KV27">
+        <v>2</v>
+      </c>
+      <c r="KW27">
+        <v>2</v>
+      </c>
+      <c r="KX27">
+        <v>2</v>
+      </c>
+      <c r="KY27">
+        <v>2</v>
+      </c>
+      <c r="KZ27">
+        <v>2</v>
+      </c>
+      <c r="LA27">
+        <v>2</v>
+      </c>
+      <c r="LB27">
+        <v>0</v>
+      </c>
+      <c r="LC27">
+        <v>0</v>
+      </c>
+      <c r="LD27">
+        <v>0</v>
+      </c>
+      <c r="LE27">
+        <v>0</v>
+      </c>
+      <c r="LF27">
+        <v>0</v>
+      </c>
+      <c r="LG27">
+        <v>0</v>
+      </c>
+      <c r="LH27">
+        <v>0</v>
+      </c>
+      <c r="LI27">
+        <v>0</v>
+      </c>
+      <c r="LJ27">
+        <v>0</v>
+      </c>
+      <c r="LK27">
+        <v>0</v>
+      </c>
+      <c r="LL27">
+        <v>-1</v>
+      </c>
+      <c r="LM27">
+        <v>2</v>
+      </c>
+      <c r="LN27">
+        <v>2</v>
+      </c>
+      <c r="LO27">
+        <v>2</v>
+      </c>
+      <c r="LP27">
+        <v>2</v>
+      </c>
+      <c r="LQ27">
+        <v>2</v>
+      </c>
+      <c r="LR27">
+        <v>2</v>
+      </c>
+      <c r="LS27">
+        <v>0</v>
+      </c>
+      <c r="LT27">
+        <v>0</v>
+      </c>
+      <c r="LU27">
+        <v>0</v>
+      </c>
+      <c r="LV27">
+        <v>0</v>
+      </c>
+      <c r="LW27">
+        <v>0</v>
+      </c>
+      <c r="LX27">
+        <v>0</v>
+      </c>
+      <c r="LY27">
+        <v>0</v>
+      </c>
+      <c r="LZ27">
+        <v>0</v>
+      </c>
+      <c r="MA27">
+        <v>0</v>
+      </c>
+      <c r="MB27">
+        <v>0</v>
+      </c>
+      <c r="MC27">
+        <v>0</v>
+      </c>
+      <c r="MD27">
+        <v>0</v>
+      </c>
+      <c r="ME27">
+        <v>2</v>
+      </c>
+      <c r="MF27">
+        <v>2</v>
+      </c>
+      <c r="MG27">
+        <v>2</v>
+      </c>
+      <c r="MH27">
+        <v>0</v>
+      </c>
+      <c r="MI27">
+        <v>0</v>
+      </c>
+      <c r="MJ27">
+        <v>0</v>
+      </c>
+      <c r="MK27">
+        <v>0</v>
+      </c>
+      <c r="ML27">
+        <v>0</v>
+      </c>
+      <c r="MM27">
+        <v>0</v>
+      </c>
+      <c r="MN27">
+        <v>0</v>
+      </c>
+      <c r="MO27">
+        <v>0</v>
+      </c>
+      <c r="MP27">
+        <v>0</v>
+      </c>
+      <c r="MQ27">
+        <v>0</v>
+      </c>
+      <c r="MR27">
+        <v>0</v>
+      </c>
+      <c r="MS27">
+        <v>0</v>
+      </c>
+      <c r="MT27">
+        <v>0</v>
+      </c>
+      <c r="MU27">
+        <v>0</v>
+      </c>
+      <c r="MV27">
+        <v>0</v>
+      </c>
+      <c r="MW27">
+        <v>0</v>
+      </c>
+      <c r="MX27">
+        <v>2</v>
+      </c>
+      <c r="MY27">
+        <v>2</v>
+      </c>
+      <c r="MZ27">
+        <v>2</v>
+      </c>
+      <c r="NA27">
+        <v>2</v>
+      </c>
+      <c r="NB27">
+        <v>2</v>
+      </c>
+      <c r="NC27">
+        <v>2</v>
+      </c>
+      <c r="ND27">
+        <v>2</v>
+      </c>
+      <c r="NE27">
+        <v>2</v>
+      </c>
+      <c r="NF27">
+        <v>2</v>
+      </c>
+      <c r="NG27">
+        <v>2</v>
+      </c>
+      <c r="NH27">
+        <v>2</v>
+      </c>
+      <c r="NI27">
+        <v>2</v>
+      </c>
+      <c r="NJ27">
+        <v>2</v>
+      </c>
+      <c r="NK27">
+        <v>0</v>
+      </c>
+      <c r="NL27">
+        <v>0</v>
+      </c>
+      <c r="NM27">
+        <v>0</v>
+      </c>
+      <c r="NN27">
+        <v>0</v>
+      </c>
+      <c r="NO27">
+        <v>0</v>
+      </c>
+      <c r="NP27">
+        <v>0</v>
+      </c>
+      <c r="NQ27">
+        <v>0</v>
+      </c>
+      <c r="NR27">
+        <v>0</v>
+      </c>
+      <c r="NS27">
+        <v>0</v>
+      </c>
+      <c r="NT27">
+        <v>0</v>
+      </c>
+      <c r="NU27">
+        <v>0</v>
+      </c>
+      <c r="NV27">
+        <v>0</v>
+      </c>
+      <c r="NW27">
+        <v>2</v>
+      </c>
+      <c r="NX27">
+        <v>2</v>
+      </c>
+      <c r="NY27">
+        <v>2</v>
+      </c>
+      <c r="NZ27">
+        <v>2</v>
+      </c>
+      <c r="OA27">
+        <v>2</v>
+      </c>
+      <c r="OB27">
+        <v>2</v>
+      </c>
+      <c r="OC27">
+        <v>2</v>
+      </c>
+      <c r="OD27">
+        <v>2</v>
+      </c>
+      <c r="OE27">
+        <v>2</v>
+      </c>
+      <c r="OF27">
+        <v>2</v>
+      </c>
+      <c r="OG27">
+        <v>2</v>
+      </c>
+      <c r="OH27">
+        <v>2</v>
+      </c>
+      <c r="OI27">
+        <v>2</v>
+      </c>
+      <c r="OJ27">
+        <v>2</v>
+      </c>
+      <c r="OK27">
+        <v>2</v>
+      </c>
+      <c r="OL27">
+        <v>2</v>
+      </c>
+      <c r="OM27">
+        <v>2</v>
+      </c>
+      <c r="ON27">
+        <v>2</v>
+      </c>
+      <c r="OO27">
+        <v>2</v>
+      </c>
+      <c r="OP27">
+        <v>2</v>
+      </c>
+      <c r="OQ27">
+        <v>2</v>
+      </c>
+      <c r="OR27">
+        <v>2</v>
+      </c>
+      <c r="OS27">
+        <v>2</v>
+      </c>
+      <c r="OT27">
+        <v>2</v>
+      </c>
+      <c r="OU27">
+        <v>0</v>
+      </c>
+      <c r="OV27">
+        <v>0</v>
+      </c>
+      <c r="OW27">
+        <v>0</v>
+      </c>
+      <c r="OX27">
+        <v>0</v>
+      </c>
+      <c r="OY27">
+        <v>0</v>
+      </c>
+      <c r="OZ27">
+        <v>0</v>
+      </c>
+      <c r="PA27">
+        <v>0</v>
+      </c>
+      <c r="PB27">
+        <v>0</v>
+      </c>
+      <c r="PC27">
+        <v>0</v>
+      </c>
+      <c r="PD27">
+        <v>0</v>
+      </c>
+      <c r="PE27">
+        <v>0</v>
+      </c>
+      <c r="PF27">
+        <v>2</v>
+      </c>
+      <c r="PG27">
+        <v>2</v>
+      </c>
+      <c r="PH27">
+        <v>2</v>
+      </c>
+      <c r="PI27">
+        <v>2</v>
+      </c>
+      <c r="PJ27">
+        <v>2</v>
+      </c>
+      <c r="PK27">
+        <v>2</v>
+      </c>
+      <c r="PL27">
+        <v>2</v>
+      </c>
+      <c r="PM27">
+        <v>2</v>
+      </c>
+      <c r="PN27">
+        <v>2</v>
+      </c>
+      <c r="PO27">
+        <v>2</v>
+      </c>
+      <c r="PP27">
+        <v>2</v>
+      </c>
+      <c r="PQ27">
+        <v>2</v>
+      </c>
+      <c r="PR27">
+        <v>2</v>
+      </c>
+      <c r="PS27">
+        <v>2</v>
+      </c>
+      <c r="PT27">
+        <v>2</v>
+      </c>
+      <c r="PU27">
+        <v>2</v>
+      </c>
+      <c r="PV27">
+        <v>0</v>
+      </c>
+      <c r="PW27">
+        <v>0</v>
+      </c>
+      <c r="PX27">
+        <v>0</v>
+      </c>
+      <c r="PY27">
+        <v>0</v>
+      </c>
+      <c r="PZ27">
+        <v>0</v>
+      </c>
+      <c r="QA27">
+        <v>0</v>
+      </c>
+      <c r="QB27">
+        <v>0</v>
+      </c>
+      <c r="QC27">
+        <v>0</v>
+      </c>
+      <c r="QD27">
+        <v>0</v>
+      </c>
+      <c r="QE27">
+        <v>0</v>
+      </c>
+      <c r="QF27">
+        <v>0</v>
+      </c>
+      <c r="QG27">
+        <v>0</v>
+      </c>
+      <c r="QH27">
+        <v>0</v>
+      </c>
+      <c r="QI27">
+        <v>0</v>
+      </c>
+      <c r="QJ27">
+        <v>0</v>
+      </c>
+      <c r="QK27">
+        <v>0</v>
+      </c>
+      <c r="QL27">
+        <v>0</v>
+      </c>
+      <c r="QM27">
+        <v>0</v>
+      </c>
+      <c r="QN27">
+        <v>0</v>
+      </c>
+      <c r="QO27">
+        <v>0</v>
+      </c>
+      <c r="QP27">
+        <v>0</v>
+      </c>
+      <c r="QQ27">
+        <v>0</v>
+      </c>
+      <c r="QR27">
+        <v>0</v>
+      </c>
+      <c r="QS27">
+        <v>2</v>
+      </c>
+      <c r="QT27">
+        <v>2</v>
+      </c>
+      <c r="QU27">
+        <v>2</v>
+      </c>
+      <c r="QV27">
+        <v>2</v>
+      </c>
+      <c r="QW27">
+        <v>2</v>
+      </c>
+      <c r="QX27">
+        <v>2</v>
+      </c>
+      <c r="QY27">
+        <v>0</v>
+      </c>
+      <c r="QZ27">
+        <v>0</v>
+      </c>
+      <c r="RA27">
+        <v>0</v>
+      </c>
+      <c r="RB27">
+        <v>0</v>
+      </c>
+      <c r="RC27">
+        <v>0</v>
+      </c>
+      <c r="RD27">
+        <v>0</v>
+      </c>
+      <c r="RE27">
+        <v>0</v>
+      </c>
+      <c r="RF27">
+        <v>0</v>
+      </c>
+      <c r="RG27">
+        <v>0</v>
+      </c>
+      <c r="RH27">
+        <v>0</v>
+      </c>
+      <c r="RI27">
+        <v>0</v>
+      </c>
+      <c r="RJ27">
+        <v>0</v>
+      </c>
+      <c r="RK27">
+        <v>0</v>
+      </c>
+      <c r="RL27">
+        <v>0</v>
+      </c>
+      <c r="RM27">
+        <v>0</v>
+      </c>
+      <c r="RN27">
+        <v>2</v>
+      </c>
+      <c r="RO27">
+        <v>2</v>
+      </c>
+      <c r="RP27">
+        <v>2</v>
+      </c>
+      <c r="RQ27">
+        <v>2</v>
+      </c>
+      <c r="RR27">
+        <v>2</v>
+      </c>
+      <c r="RS27">
+        <v>0</v>
+      </c>
+      <c r="RT27">
+        <v>0</v>
+      </c>
+      <c r="RU27">
+        <v>0</v>
+      </c>
+      <c r="RV27">
+        <v>0</v>
+      </c>
+      <c r="RW27">
+        <v>0</v>
+      </c>
+      <c r="RX27">
+        <v>0</v>
+      </c>
+      <c r="RY27">
+        <v>0</v>
+      </c>
+      <c r="RZ27">
+        <v>0</v>
+      </c>
+      <c r="SA27">
+        <v>0</v>
+      </c>
+      <c r="SB27">
+        <v>2</v>
+      </c>
+      <c r="SC27">
+        <v>2</v>
+      </c>
+      <c r="SD27">
+        <v>2</v>
+      </c>
+      <c r="SE27">
+        <v>2</v>
+      </c>
+      <c r="SF27">
+        <v>2</v>
+      </c>
+      <c r="SG27">
+        <v>2</v>
+      </c>
+      <c r="SH27">
+        <v>2</v>
+      </c>
+      <c r="SI27">
+        <v>2</v>
+      </c>
+      <c r="SJ27">
+        <v>2</v>
+      </c>
+      <c r="SK27">
+        <v>2</v>
+      </c>
+      <c r="SL27">
+        <v>2</v>
+      </c>
+      <c r="SM27">
+        <v>2</v>
+      </c>
+      <c r="SN27">
+        <v>2</v>
+      </c>
+      <c r="SO27">
+        <v>2</v>
+      </c>
+      <c r="SP27">
+        <v>2</v>
+      </c>
+      <c r="SQ27">
+        <v>2</v>
+      </c>
+      <c r="SR27">
+        <v>2</v>
+      </c>
+      <c r="SS27">
+        <v>0</v>
+      </c>
+      <c r="ST27">
+        <v>0</v>
+      </c>
+      <c r="SU27">
+        <v>0</v>
+      </c>
+      <c r="SV27">
+        <v>0</v>
+      </c>
+      <c r="SW27">
+        <v>0</v>
+      </c>
+      <c r="SX27">
+        <v>0</v>
+      </c>
+      <c r="SY27">
+        <v>0</v>
+      </c>
+      <c r="SZ27">
+        <v>0</v>
+      </c>
+      <c r="TA27">
+        <v>0</v>
+      </c>
+      <c r="TB27">
+        <v>0</v>
+      </c>
+      <c r="TC27">
+        <v>0</v>
+      </c>
+      <c r="TD27">
+        <v>0</v>
+      </c>
+      <c r="TE27">
+        <v>0</v>
+      </c>
+      <c r="TF27">
+        <v>0</v>
+      </c>
+      <c r="TG27">
+        <v>0</v>
+      </c>
+      <c r="TH27">
+        <v>0</v>
+      </c>
+      <c r="TI27">
+        <v>0</v>
+      </c>
+      <c r="TJ27">
+        <v>2</v>
+      </c>
+      <c r="TK27">
+        <v>2</v>
+      </c>
+      <c r="TL27">
+        <v>2</v>
+      </c>
+      <c r="TM27">
+        <v>2</v>
+      </c>
+      <c r="TN27">
+        <v>2</v>
+      </c>
+      <c r="TO27">
+        <v>2</v>
+      </c>
+      <c r="TP27">
+        <v>2</v>
+      </c>
+      <c r="TQ27">
+        <v>2</v>
+      </c>
+      <c r="TR27">
+        <v>2</v>
+      </c>
+      <c r="TS27">
+        <v>0</v>
+      </c>
+      <c r="TT27">
+        <v>0</v>
+      </c>
+      <c r="TU27">
+        <v>0</v>
+      </c>
+      <c r="TV27">
+        <v>0</v>
+      </c>
+      <c r="TW27">
+        <v>0</v>
+      </c>
+      <c r="TX27">
+        <v>0</v>
+      </c>
+      <c r="TY27">
+        <v>0</v>
+      </c>
+      <c r="TZ27">
+        <v>0</v>
+      </c>
+      <c r="UA27">
+        <v>0</v>
+      </c>
+      <c r="UB27">
+        <v>0</v>
+      </c>
+      <c r="UC27">
+        <v>0</v>
+      </c>
+      <c r="UD27">
+        <v>0</v>
+      </c>
+      <c r="UE27">
+        <v>0</v>
+      </c>
+      <c r="UF27">
+        <v>2</v>
+      </c>
+      <c r="UG27">
+        <v>2</v>
+      </c>
+      <c r="UH27">
+        <v>2</v>
+      </c>
+      <c r="UI27">
+        <v>2</v>
+      </c>
+      <c r="UJ27">
+        <v>2</v>
+      </c>
+      <c r="UK27">
+        <v>2</v>
+      </c>
+      <c r="UL27">
+        <v>0</v>
+      </c>
+      <c r="UM27">
+        <v>0</v>
+      </c>
+      <c r="UN27">
+        <v>0</v>
+      </c>
+      <c r="UO27">
+        <v>0</v>
+      </c>
+      <c r="UP27">
+        <v>0</v>
+      </c>
+      <c r="UQ27">
+        <v>0</v>
+      </c>
+      <c r="UR27">
+        <v>0</v>
+      </c>
+      <c r="US27">
+        <v>0</v>
+      </c>
+      <c r="UT27">
+        <v>0</v>
+      </c>
+      <c r="UU27">
+        <v>0</v>
+      </c>
+      <c r="UV27">
+        <v>0</v>
+      </c>
+      <c r="UW27">
+        <v>0</v>
+      </c>
+      <c r="UX27">
+        <v>0</v>
+      </c>
+      <c r="UY27">
+        <v>2</v>
+      </c>
+      <c r="UZ27">
+        <v>0</v>
+      </c>
+      <c r="VA27">
+        <v>0</v>
+      </c>
+      <c r="VB27">
+        <v>0</v>
+      </c>
+      <c r="VC27">
+        <v>0</v>
+      </c>
+      <c r="VD27">
+        <v>0</v>
+      </c>
+      <c r="VE27">
+        <v>0</v>
+      </c>
+      <c r="VF27">
+        <v>0</v>
+      </c>
+      <c r="VG27">
+        <v>0</v>
+      </c>
+      <c r="VH27">
+        <v>0</v>
+      </c>
+      <c r="VI27">
+        <v>0</v>
+      </c>
+      <c r="VJ27">
+        <v>0</v>
+      </c>
+      <c r="VK27">
+        <v>0</v>
+      </c>
+      <c r="VL27">
+        <v>0</v>
+      </c>
+      <c r="VM27">
+        <v>2</v>
+      </c>
+      <c r="VN27">
+        <v>2</v>
+      </c>
+      <c r="VO27">
+        <v>2</v>
+      </c>
+      <c r="VP27">
+        <v>2</v>
+      </c>
+      <c r="VQ27">
+        <v>2</v>
+      </c>
+      <c r="VR27">
+        <v>2</v>
+      </c>
+      <c r="VS27">
+        <v>2</v>
+      </c>
+      <c r="VT27">
+        <v>2</v>
+      </c>
+      <c r="VU27">
+        <v>2</v>
+      </c>
+      <c r="VV27">
+        <v>2</v>
+      </c>
+      <c r="VW27">
+        <v>2</v>
+      </c>
+      <c r="VX27">
+        <v>2</v>
+      </c>
+      <c r="VY27">
+        <v>2</v>
+      </c>
+      <c r="VZ27">
+        <v>2</v>
+      </c>
+      <c r="WA27">
+        <v>2</v>
+      </c>
+      <c r="WB27">
+        <v>2</v>
+      </c>
+      <c r="WC27">
+        <v>2</v>
+      </c>
+      <c r="WD27">
+        <v>2</v>
+      </c>
+      <c r="WE27">
+        <v>2</v>
+      </c>
+      <c r="WF27">
+        <v>2</v>
+      </c>
+      <c r="WG27">
+        <v>2</v>
+      </c>
+      <c r="WH27">
+        <v>2</v>
+      </c>
+      <c r="WI27">
+        <v>2</v>
+      </c>
+      <c r="WJ27">
+        <v>2</v>
+      </c>
+      <c r="WK27">
+        <v>2</v>
+      </c>
+      <c r="WL27">
+        <v>2</v>
+      </c>
+      <c r="WM27">
+        <v>2</v>
+      </c>
+      <c r="WN27">
+        <v>2</v>
+      </c>
+      <c r="WO27">
+        <v>2</v>
+      </c>
+      <c r="WP27">
+        <v>2</v>
+      </c>
+      <c r="WQ27">
+        <v>2</v>
+      </c>
+      <c r="WR27">
+        <v>2</v>
+      </c>
+      <c r="WS27">
+        <v>2</v>
+      </c>
+      <c r="WT27">
+        <v>2</v>
+      </c>
+      <c r="WU27">
+        <v>2</v>
+      </c>
+      <c r="WV27">
+        <v>2</v>
+      </c>
+      <c r="WW27">
+        <v>2</v>
+      </c>
+      <c r="WX27">
+        <v>2</v>
+      </c>
+      <c r="WY27">
+        <v>0</v>
+      </c>
+      <c r="WZ27">
+        <v>0</v>
+      </c>
+      <c r="XA27">
+        <v>0</v>
+      </c>
+      <c r="XB27">
+        <v>0</v>
+      </c>
+      <c r="XC27">
+        <v>0</v>
+      </c>
+      <c r="XD27">
+        <v>0</v>
+      </c>
+      <c r="XE27">
+        <v>0</v>
+      </c>
+      <c r="XF27">
+        <v>0</v>
+      </c>
+      <c r="XG27">
+        <v>0</v>
+      </c>
+      <c r="XH27">
+        <v>0</v>
+      </c>
+      <c r="XI27">
+        <v>0</v>
+      </c>
+      <c r="XJ27">
+        <v>0</v>
+      </c>
+      <c r="XK27">
+        <v>0</v>
+      </c>
+      <c r="XL27">
+        <v>0</v>
+      </c>
+      <c r="XM27">
+        <v>0</v>
+      </c>
+      <c r="XN27">
+        <v>0</v>
+      </c>
+      <c r="XO27">
+        <v>0</v>
+      </c>
+      <c r="XP27">
+        <v>0</v>
+      </c>
+      <c r="XQ27">
+        <v>0</v>
+      </c>
+      <c r="XR27">
+        <v>0</v>
+      </c>
+      <c r="XS27">
+        <v>0</v>
+      </c>
+      <c r="XT27">
+        <v>0</v>
+      </c>
+      <c r="XU27">
+        <v>0</v>
+      </c>
+      <c r="XV27">
+        <v>0</v>
+      </c>
+      <c r="XW27">
+        <v>0</v>
+      </c>
+      <c r="XX27">
+        <v>0</v>
+      </c>
+      <c r="XY27">
+        <v>0</v>
+      </c>
+      <c r="XZ27">
+        <v>0</v>
+      </c>
+      <c r="YA27">
+        <v>0</v>
+      </c>
+      <c r="YB27">
+        <v>0</v>
+      </c>
+      <c r="YC27">
+        <v>0</v>
+      </c>
+      <c r="YD27">
+        <v>0</v>
+      </c>
+      <c r="YE27">
+        <v>0</v>
+      </c>
+      <c r="YF27">
+        <v>0</v>
+      </c>
+      <c r="YG27">
+        <v>0</v>
+      </c>
+      <c r="YH27">
+        <v>0</v>
+      </c>
+      <c r="YI27">
+        <v>0</v>
+      </c>
+      <c r="YJ27">
+        <v>0</v>
+      </c>
+      <c r="YK27">
+        <v>0</v>
+      </c>
+      <c r="YL27">
+        <v>0</v>
+      </c>
+      <c r="YM27">
+        <v>0</v>
+      </c>
+      <c r="YN27">
+        <v>0</v>
+      </c>
+      <c r="YO27">
+        <v>0</v>
+      </c>
+      <c r="YP27">
+        <v>0</v>
+      </c>
+      <c r="YQ27">
+        <v>0</v>
+      </c>
+      <c r="YR27">
+        <v>0</v>
+      </c>
+      <c r="YS27">
+        <v>0</v>
+      </c>
+      <c r="YT27">
+        <v>0</v>
+      </c>
+      <c r="YU27">
+        <v>0</v>
+      </c>
+      <c r="YV27">
+        <v>-1</v>
+      </c>
+      <c r="YW27">
+        <v>2</v>
+      </c>
+      <c r="YX27">
+        <v>2</v>
+      </c>
+      <c r="YY27">
+        <v>2</v>
+      </c>
+      <c r="YZ27">
+        <v>2</v>
+      </c>
+      <c r="ZA27">
+        <v>2</v>
+      </c>
+      <c r="ZB27">
+        <v>2</v>
+      </c>
+      <c r="ZC27">
+        <v>2</v>
+      </c>
+      <c r="ZD27">
+        <v>2</v>
+      </c>
+      <c r="ZE27">
+        <v>2</v>
+      </c>
+      <c r="ZF27">
+        <v>2</v>
+      </c>
+      <c r="ZG27">
+        <v>2</v>
+      </c>
+      <c r="ZH27">
+        <v>2</v>
+      </c>
+      <c r="ZI27">
+        <v>2</v>
+      </c>
+      <c r="ZJ27">
+        <v>0</v>
+      </c>
+      <c r="ZK27">
+        <v>0</v>
+      </c>
+      <c r="ZL27">
+        <v>0</v>
+      </c>
+      <c r="ZM27">
+        <v>0</v>
+      </c>
+      <c r="ZN27">
+        <v>0</v>
+      </c>
+      <c r="ZO27">
+        <v>0</v>
+      </c>
+      <c r="ZP27">
+        <v>0</v>
+      </c>
+      <c r="ZQ27">
+        <v>0</v>
+      </c>
+      <c r="ZR27">
+        <v>0</v>
+      </c>
+      <c r="ZS27">
+        <v>0</v>
+      </c>
+      <c r="ZT27">
+        <v>0</v>
+      </c>
+      <c r="ZU27">
+        <v>0</v>
+      </c>
+      <c r="ZV27">
+        <v>0</v>
+      </c>
+      <c r="ZW27">
+        <v>2</v>
+      </c>
+      <c r="ZX27">
+        <v>2</v>
+      </c>
+      <c r="ZY27">
+        <v>2</v>
+      </c>
+      <c r="ZZ27">
+        <v>2</v>
+      </c>
+      <c r="AAA27">
+        <v>2</v>
+      </c>
+      <c r="AAB27">
+        <v>2</v>
+      </c>
+      <c r="AAC27">
+        <v>2</v>
+      </c>
+      <c r="AAD27">
+        <v>2</v>
+      </c>
+      <c r="AAE27">
+        <v>2</v>
+      </c>
+      <c r="AAF27">
+        <v>2</v>
+      </c>
+      <c r="AAG27">
+        <v>2</v>
+      </c>
+      <c r="AAH27">
+        <v>2</v>
+      </c>
+      <c r="AAI27">
+        <v>2</v>
+      </c>
+      <c r="AAJ27">
+        <v>2</v>
+      </c>
+      <c r="AAK27">
+        <v>2</v>
+      </c>
+      <c r="AAL27">
+        <v>2</v>
+      </c>
+      <c r="AAM27">
+        <v>2</v>
+      </c>
+      <c r="AAN27">
+        <v>2</v>
+      </c>
+      <c r="AAO27">
+        <v>2</v>
+      </c>
+      <c r="AAP27">
+        <v>2</v>
+      </c>
+      <c r="AAQ27">
+        <v>2</v>
+      </c>
+      <c r="AAR27">
+        <v>2</v>
+      </c>
+      <c r="AAS27">
+        <v>2</v>
+      </c>
+      <c r="AAT27">
+        <v>2</v>
+      </c>
+      <c r="AAU27">
+        <v>2</v>
+      </c>
+      <c r="AAV27">
+        <v>2</v>
+      </c>
+      <c r="AAW27">
+        <v>2</v>
+      </c>
+      <c r="AAX27">
+        <v>2</v>
+      </c>
+      <c r="AAY27">
+        <v>2</v>
+      </c>
+      <c r="AAZ27">
+        <v>2</v>
+      </c>
+      <c r="ABA27">
+        <v>2</v>
+      </c>
+      <c r="ABB27">
+        <v>2</v>
+      </c>
+      <c r="ABC27">
+        <v>2</v>
+      </c>
+      <c r="ABD27">
+        <v>2</v>
+      </c>
+      <c r="ABE27">
+        <v>2</v>
+      </c>
+      <c r="ABF27">
+        <v>2</v>
+      </c>
+      <c r="ABG27">
+        <v>2</v>
+      </c>
+      <c r="ABH27">
+        <v>2</v>
+      </c>
+      <c r="ABI27">
+        <v>0</v>
+      </c>
+      <c r="ABJ27">
+        <v>0</v>
+      </c>
+      <c r="ABK27">
+        <v>0</v>
+      </c>
+      <c r="ABL27">
+        <v>0</v>
+      </c>
+      <c r="ABM27">
+        <v>0</v>
+      </c>
+      <c r="ABN27">
+        <v>0</v>
+      </c>
+      <c r="ABO27">
+        <v>0</v>
+      </c>
+      <c r="ABP27">
+        <v>-1</v>
+      </c>
+      <c r="ABQ27">
+        <v>2</v>
+      </c>
+      <c r="ABR27">
+        <v>2</v>
+      </c>
+      <c r="ABS27">
+        <v>2</v>
+      </c>
+      <c r="ABT27">
+        <v>2</v>
+      </c>
+      <c r="ABU27">
+        <v>2</v>
+      </c>
+      <c r="ABV27">
+        <v>2</v>
+      </c>
+      <c r="ABW27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
